--- a/Document/WeaponTable.xlsx
+++ b/Document/WeaponTable.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0B9413-5B91-4C6C-8E2E-35136D604C59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939DF3FF-512A-46C0-B950-A6DF55389A63}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="101">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,6 +332,75 @@
   <si>
     <t>Argonak#0</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staticor</t>
+  </si>
+  <si>
+    <t>Pistol</t>
+  </si>
+  <si>
+    <t>Alarming</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>AutoSpool</t>
+  </si>
+  <si>
+    <t>ChargeMultiplier</t>
+  </si>
+  <si>
+    <t>MaxChargeRounds</t>
+  </si>
+  <si>
+    <t>MaxBurstCount</t>
+  </si>
+  <si>
+    <t>Acrid</t>
+  </si>
+  <si>
+    <t>Afuris</t>
+  </si>
+  <si>
+    <t>Akbolto</t>
+  </si>
+  <si>
+    <t>AkboltoPrime</t>
+  </si>
+  <si>
+    <t>Akbronco</t>
+  </si>
+  <si>
+    <t>AkbroncoPrime</t>
+  </si>
+  <si>
+    <t>Akjagara</t>
+  </si>
+  <si>
+    <t>Aklato</t>
+  </si>
+  <si>
+    <t>Aklex</t>
+  </si>
+  <si>
+    <t>Akmagnus</t>
+  </si>
+  <si>
+    <t>Aksomati</t>
+  </si>
+  <si>
+    <t>Akstiletto</t>
+  </si>
+  <si>
+    <t>SemiAuto</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Burst</t>
   </si>
 </sst>
 </file>
@@ -339,23 +408,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="180" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="167" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="168" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -364,7 +433,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -373,7 +442,7 @@
       <b/>
       <sz val="11"/>
       <color theme="5"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -381,7 +450,7 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -390,7 +459,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFDA0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -398,7 +467,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFDA0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -407,7 +476,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0000CC"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -415,7 +484,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000CC"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -424,7 +493,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF9900CC"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -432,7 +501,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9900CC"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -441,7 +510,7 @@
       <b/>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -449,7 +518,7 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -458,7 +527,7 @@
       <b/>
       <sz val="11"/>
       <color theme="9" tint="0.39997558519241921"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -466,7 +535,7 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="0.39997558519241921"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -475,7 +544,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00CCFF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -483,7 +552,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00CCFF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -492,7 +561,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3333FF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -500,7 +569,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3333FF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -509,7 +578,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF996600"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -517,7 +586,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF996600"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -526,7 +595,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF009999"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -534,7 +603,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF009999"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -543,7 +612,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF515151"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -551,7 +620,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF515151"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -577,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -585,106 +654,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -980,43 +1055,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE37"/>
+  <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5670" ySplit="600" topLeftCell="B31" activePane="bottomRight"/>
+      <selection activeCell="Z40" sqref="Z40"/>
+      <selection pane="topRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
+      <selection pane="bottomRight" activeCell="AF40" sqref="AF40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="6"/>
-    <col min="3" max="4" width="12.625" style="2"/>
-    <col min="5" max="6" width="12.625" style="8"/>
-    <col min="7" max="7" width="12.625" style="29"/>
-    <col min="8" max="8" width="16.625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="4" customWidth="1"/>
-    <col min="10" max="11" width="12.625" style="29"/>
-    <col min="12" max="12" width="14.625" style="36" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="6"/>
-    <col min="14" max="14" width="12.625" style="2"/>
-    <col min="15" max="15" width="16.625" style="29" customWidth="1"/>
-    <col min="16" max="16" width="12.625" style="8"/>
-    <col min="17" max="17" width="12.625" style="34"/>
-    <col min="18" max="18" width="12.625" style="2"/>
-    <col min="19" max="21" width="12.625" style="19"/>
-    <col min="22" max="22" width="12.625" style="20"/>
-    <col min="23" max="23" width="12.625" style="21"/>
-    <col min="24" max="24" width="12.625" style="22"/>
-    <col min="25" max="25" width="12.625" style="23"/>
-    <col min="26" max="26" width="12.625" style="4"/>
-    <col min="27" max="27" width="12.625" style="24"/>
-    <col min="28" max="28" width="12.625" style="25"/>
-    <col min="29" max="29" width="12.625" style="26"/>
-    <col min="30" max="30" width="12.625" style="27"/>
-    <col min="31" max="31" width="12.625" style="28"/>
+    <col min="1" max="1" width="16.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="6"/>
+    <col min="3" max="4" width="12.5703125" style="2"/>
+    <col min="5" max="6" width="12.5703125" style="8"/>
+    <col min="7" max="7" width="12.5703125" style="29"/>
+    <col min="8" max="8" width="16.5703125" style="32" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="4" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" style="29"/>
+    <col min="12" max="12" width="14.5703125" style="36" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="6"/>
+    <col min="14" max="14" width="12.5703125" style="2"/>
+    <col min="15" max="15" width="16.5703125" style="29" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="8"/>
+    <col min="17" max="17" width="12.5703125" style="34"/>
+    <col min="18" max="18" width="12.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="38" customWidth="1"/>
+    <col min="22" max="24" width="12.5703125" style="19"/>
+    <col min="25" max="25" width="12.5703125" style="20"/>
+    <col min="26" max="26" width="12.5703125" style="21"/>
+    <col min="27" max="27" width="12.5703125" style="22"/>
+    <col min="28" max="28" width="12.5703125" style="23"/>
+    <col min="29" max="29" width="12.5703125" style="4"/>
+    <col min="30" max="30" width="12.5703125" style="24"/>
+    <col min="31" max="31" width="12.5703125" style="25"/>
+    <col min="32" max="32" width="12.5703125" style="26"/>
+    <col min="33" max="33" width="12.5703125" style="27"/>
+    <col min="34" max="34" width="12.5703125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,47 +1153,56 @@
       <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AF1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AG1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AH1" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1166,47 +1257,56 @@
       <c r="R2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="19">
-        <v>0</v>
-      </c>
-      <c r="T2" s="19">
-        <v>0</v>
-      </c>
-      <c r="U2" s="19">
-        <v>0</v>
-      </c>
-      <c r="V2" s="20">
-        <v>0</v>
-      </c>
-      <c r="W2" s="21">
-        <v>0</v>
-      </c>
-      <c r="X2" s="22">
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="38">
+        <v>0</v>
+      </c>
+      <c r="V2" s="19">
+        <v>0</v>
+      </c>
+      <c r="W2" s="19">
+        <v>0</v>
+      </c>
+      <c r="X2" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="22">
         <v>22</v>
       </c>
-      <c r="Y2" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="28">
+      <c r="AB2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1241,7 +1341,7 @@
         <v>2000</v>
       </c>
       <c r="L3" s="36">
-        <v>0.66669999999999996</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="M3" s="6">
         <v>1.1000000000000001</v>
@@ -1261,47 +1361,56 @@
       <c r="R3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="19">
-        <v>0</v>
-      </c>
-      <c r="T3" s="19">
-        <v>0</v>
-      </c>
-      <c r="U3" s="19">
-        <v>0</v>
-      </c>
-      <c r="V3" s="20">
-        <v>0</v>
-      </c>
-      <c r="W3" s="21">
-        <v>0</v>
-      </c>
-      <c r="X3" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="24">
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="38">
+        <v>0</v>
+      </c>
+      <c r="V3" s="19">
+        <v>0</v>
+      </c>
+      <c r="W3" s="19">
+        <v>0</v>
+      </c>
+      <c r="X3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="24">
         <v>600</v>
       </c>
-      <c r="AB3" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="28">
+      <c r="AE3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34">
       <c r="A4" s="2" t="s">
         <v>77</v>
       </c>
@@ -1356,47 +1465,56 @@
       <c r="R4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="38">
+        <v>0</v>
+      </c>
+      <c r="V4" s="19">
         <v>26.2</v>
       </c>
-      <c r="T4" s="19">
+      <c r="W4" s="19">
         <v>24.5</v>
       </c>
-      <c r="U4" s="19">
+      <c r="X4" s="19">
         <v>6.3</v>
       </c>
-      <c r="V4" s="20">
-        <v>0</v>
-      </c>
-      <c r="W4" s="21">
-        <v>0</v>
-      </c>
-      <c r="X4" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="28">
+      <c r="Y4" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34">
       <c r="A5" s="2" t="s">
         <v>66</v>
       </c>
@@ -1451,47 +1569,56 @@
       <c r="R5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="38">
+        <v>0</v>
+      </c>
+      <c r="V5" s="19">
         <v>26.2</v>
       </c>
-      <c r="T5" s="19">
+      <c r="W5" s="19">
         <v>24.5</v>
       </c>
-      <c r="U5" s="19">
+      <c r="X5" s="19">
         <v>6.3</v>
       </c>
-      <c r="V5" s="20">
-        <v>0</v>
-      </c>
-      <c r="W5" s="21">
-        <v>0</v>
-      </c>
-      <c r="X5" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="28">
+      <c r="Y5" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1546,47 +1673,56 @@
       <c r="R6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="38">
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
         <v>78</v>
       </c>
-      <c r="T6" s="19">
+      <c r="W6" s="19">
         <v>70</v>
       </c>
-      <c r="U6" s="19">
+      <c r="X6" s="19">
         <v>42</v>
       </c>
-      <c r="V6" s="20">
-        <v>0</v>
-      </c>
-      <c r="W6" s="21">
-        <v>0</v>
-      </c>
-      <c r="X6" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="28">
+      <c r="Y6" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1641,47 +1777,56 @@
       <c r="R7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="19">
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="38">
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
         <v>16</v>
       </c>
-      <c r="T7" s="19">
+      <c r="W7" s="19">
         <v>4</v>
       </c>
-      <c r="U7" s="19">
+      <c r="X7" s="19">
         <v>60</v>
       </c>
-      <c r="V7" s="20">
-        <v>0</v>
-      </c>
-      <c r="W7" s="21">
-        <v>0</v>
-      </c>
-      <c r="X7" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="28">
+      <c r="Y7" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34">
       <c r="A8" s="2" t="s">
         <v>76</v>
       </c>
@@ -1736,47 +1881,56 @@
       <c r="R8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S8" s="19">
-        <v>0</v>
-      </c>
-      <c r="T8" s="19">
-        <v>0</v>
-      </c>
-      <c r="U8" s="19">
+      <c r="S8" s="2">
+        <v>2</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="38">
+        <v>0</v>
+      </c>
+      <c r="V8" s="19">
+        <v>0</v>
+      </c>
+      <c r="W8" s="19">
+        <v>0</v>
+      </c>
+      <c r="X8" s="19">
         <v>24</v>
       </c>
-      <c r="V8" s="20">
-        <v>0</v>
-      </c>
-      <c r="W8" s="21">
-        <v>0</v>
-      </c>
-      <c r="X8" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="26">
+      <c r="Y8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="26">
         <v>42</v>
       </c>
-      <c r="AD8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="28">
+      <c r="AG8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34">
       <c r="A9" s="2" t="s">
         <v>67</v>
       </c>
@@ -1831,47 +1985,56 @@
       <c r="R9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S9" s="19">
-        <v>0</v>
-      </c>
-      <c r="T9" s="19">
-        <v>0</v>
-      </c>
-      <c r="U9" s="19">
-        <v>0</v>
-      </c>
-      <c r="V9" s="20">
-        <v>0</v>
-      </c>
-      <c r="W9" s="21">
-        <v>0</v>
-      </c>
-      <c r="X9" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="24">
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+      <c r="U9" s="38">
+        <v>1</v>
+      </c>
+      <c r="V9" s="19">
+        <v>0</v>
+      </c>
+      <c r="W9" s="19">
+        <v>0</v>
+      </c>
+      <c r="X9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="24">
         <v>208</v>
       </c>
-      <c r="AB9" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="28">
+      <c r="AE9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -1926,47 +2089,56 @@
       <c r="R10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="38">
+        <v>0</v>
+      </c>
+      <c r="V10" s="19">
         <v>3.5</v>
       </c>
-      <c r="T10" s="19">
+      <c r="W10" s="19">
         <v>5.8</v>
       </c>
-      <c r="U10" s="19">
+      <c r="X10" s="19">
         <v>6.7</v>
       </c>
-      <c r="V10" s="20">
-        <v>0</v>
-      </c>
-      <c r="W10" s="21">
-        <v>0</v>
-      </c>
-      <c r="X10" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="28">
+      <c r="Y10" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -2021,47 +2193,56 @@
       <c r="R11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S11" s="19">
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="38">
+        <v>0</v>
+      </c>
+      <c r="V11" s="19">
         <v>6.6</v>
       </c>
-      <c r="T11" s="19">
+      <c r="W11" s="19">
         <v>12.1</v>
       </c>
-      <c r="U11" s="19">
+      <c r="X11" s="19">
         <v>3.3</v>
       </c>
-      <c r="V11" s="20">
-        <v>0</v>
-      </c>
-      <c r="W11" s="21">
-        <v>0</v>
-      </c>
-      <c r="X11" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="28">
+      <c r="Y11" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -2096,7 +2277,7 @@
         <v>2500</v>
       </c>
       <c r="L12" s="36">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M12" s="6">
         <v>4.67</v>
@@ -2116,47 +2297,56 @@
       <c r="R12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S12" s="19">
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="38">
+        <v>0</v>
+      </c>
+      <c r="V12" s="19">
         <v>8</v>
       </c>
-      <c r="T12" s="19">
+      <c r="W12" s="19">
         <v>26</v>
       </c>
-      <c r="U12" s="19">
+      <c r="X12" s="19">
         <v>6</v>
       </c>
-      <c r="V12" s="20">
-        <v>0</v>
-      </c>
-      <c r="W12" s="21">
-        <v>0</v>
-      </c>
-      <c r="X12" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="28">
+      <c r="Y12" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -2211,47 +2401,56 @@
       <c r="R13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S13" s="19">
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="38">
+        <v>0</v>
+      </c>
+      <c r="V13" s="19">
         <v>2.5</v>
       </c>
-      <c r="T13" s="19">
+      <c r="W13" s="19">
         <v>2.5</v>
       </c>
-      <c r="U13" s="19">
+      <c r="X13" s="19">
         <v>20</v>
       </c>
-      <c r="V13" s="20">
-        <v>0</v>
-      </c>
-      <c r="W13" s="21">
-        <v>0</v>
-      </c>
-      <c r="X13" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="28">
+      <c r="Y13" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -2306,47 +2505,56 @@
       <c r="R14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S14" s="19">
-        <v>0</v>
-      </c>
-      <c r="T14" s="19">
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="38">
+        <v>0</v>
+      </c>
+      <c r="V14" s="19">
+        <v>0</v>
+      </c>
+      <c r="W14" s="19">
         <v>4.5999999999999996</v>
       </c>
-      <c r="U14" s="19">
+      <c r="X14" s="19">
         <v>41.4</v>
       </c>
-      <c r="V14" s="20">
-        <v>0</v>
-      </c>
-      <c r="W14" s="21">
-        <v>0</v>
-      </c>
-      <c r="X14" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="28">
+      <c r="Y14" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -2401,47 +2609,56 @@
       <c r="R15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S15" s="19">
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="38">
+        <v>0</v>
+      </c>
+      <c r="V15" s="19">
         <v>8.1999999999999993</v>
       </c>
-      <c r="T15" s="19">
+      <c r="W15" s="19">
         <v>7.9</v>
       </c>
-      <c r="U15" s="19">
+      <c r="X15" s="19">
         <v>7.9</v>
       </c>
-      <c r="V15" s="20">
-        <v>0</v>
-      </c>
-      <c r="W15" s="21">
-        <v>0</v>
-      </c>
-      <c r="X15" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="28">
+      <c r="Y15" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -2496,47 +2713,56 @@
       <c r="R16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S16" s="19">
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="38">
+        <v>0</v>
+      </c>
+      <c r="V16" s="19">
         <v>21</v>
       </c>
-      <c r="T16" s="19">
+      <c r="W16" s="19">
         <v>1.8</v>
       </c>
-      <c r="U16" s="19">
+      <c r="X16" s="19">
         <v>12.3</v>
       </c>
-      <c r="V16" s="20">
-        <v>0</v>
-      </c>
-      <c r="W16" s="21">
-        <v>0</v>
-      </c>
-      <c r="X16" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="28">
+      <c r="Y16" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -2591,47 +2817,56 @@
       <c r="R17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S17" s="19">
+      <c r="S17" s="2">
+        <v>3</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="38">
+        <v>0</v>
+      </c>
+      <c r="V17" s="19">
         <v>10</v>
       </c>
-      <c r="T17" s="19">
+      <c r="W17" s="19">
         <v>10</v>
       </c>
-      <c r="U17" s="19">
+      <c r="X17" s="19">
         <v>10</v>
       </c>
-      <c r="V17" s="20">
-        <v>0</v>
-      </c>
-      <c r="W17" s="21">
-        <v>0</v>
-      </c>
-      <c r="X17" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="28">
+      <c r="Y17" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -2686,47 +2921,56 @@
       <c r="R18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S18" s="19">
+      <c r="S18" s="2">
+        <v>3</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="38">
+        <v>0</v>
+      </c>
+      <c r="V18" s="19">
         <v>14.4</v>
       </c>
-      <c r="T18" s="19">
+      <c r="W18" s="19">
         <v>10.8</v>
       </c>
-      <c r="U18" s="19">
+      <c r="X18" s="19">
         <v>10.8</v>
       </c>
-      <c r="V18" s="20">
-        <v>0</v>
-      </c>
-      <c r="W18" s="21">
-        <v>0</v>
-      </c>
-      <c r="X18" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="28">
+      <c r="Y18" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34">
       <c r="A19" s="2" t="s">
         <v>75</v>
       </c>
@@ -2781,47 +3025,56 @@
       <c r="R19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="S19" s="19">
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="38">
+        <v>0</v>
+      </c>
+      <c r="V19" s="19">
         <v>6</v>
       </c>
-      <c r="T19" s="19">
+      <c r="W19" s="19">
         <v>30</v>
       </c>
-      <c r="U19" s="19">
+      <c r="X19" s="19">
         <v>24</v>
       </c>
-      <c r="V19" s="20">
-        <v>0</v>
-      </c>
-      <c r="W19" s="21">
-        <v>0</v>
-      </c>
-      <c r="X19" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="28">
+      <c r="Y19" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34">
       <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
@@ -2876,47 +3129,56 @@
       <c r="R20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="S20" s="19">
-        <v>0</v>
-      </c>
-      <c r="T20" s="19">
-        <v>0</v>
-      </c>
-      <c r="U20" s="19">
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="38">
+        <v>0</v>
+      </c>
+      <c r="V20" s="19">
+        <v>0</v>
+      </c>
+      <c r="W20" s="19">
+        <v>0</v>
+      </c>
+      <c r="X20" s="19">
         <v>3</v>
       </c>
-      <c r="V20" s="20">
-        <v>0</v>
-      </c>
-      <c r="W20" s="21">
-        <v>0</v>
-      </c>
-      <c r="X20" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="28">
+      <c r="Y20" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -2971,47 +3233,56 @@
       <c r="R21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S21" s="19">
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
+        <v>1</v>
+      </c>
+      <c r="U21" s="38">
+        <v>2</v>
+      </c>
+      <c r="V21" s="19">
         <v>11</v>
       </c>
-      <c r="T21" s="19">
+      <c r="W21" s="19">
         <v>198</v>
       </c>
-      <c r="U21" s="19">
+      <c r="X21" s="19">
         <v>11</v>
       </c>
-      <c r="V21" s="20">
-        <v>0</v>
-      </c>
-      <c r="W21" s="21">
-        <v>0</v>
-      </c>
-      <c r="X21" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="28">
+      <c r="Y21" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34">
       <c r="A22" s="2" t="s">
         <v>70</v>
       </c>
@@ -3066,47 +3337,56 @@
       <c r="R22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S22" s="19">
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2">
+        <v>1</v>
+      </c>
+      <c r="U22" s="38">
+        <v>2</v>
+      </c>
+      <c r="V22" s="19">
         <v>6</v>
       </c>
-      <c r="T22" s="19">
+      <c r="W22" s="19">
         <v>108</v>
       </c>
-      <c r="U22" s="19">
+      <c r="X22" s="19">
         <v>6</v>
       </c>
-      <c r="V22" s="20">
-        <v>0</v>
-      </c>
-      <c r="W22" s="21">
-        <v>0</v>
-      </c>
-      <c r="X22" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="28">
+      <c r="Y22" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -3161,47 +3441,56 @@
       <c r="R23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S23" s="19">
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>1</v>
+      </c>
+      <c r="U23" s="38">
+        <v>2</v>
+      </c>
+      <c r="V23" s="19">
         <v>6</v>
       </c>
-      <c r="T23" s="19">
+      <c r="W23" s="19">
         <v>108</v>
       </c>
-      <c r="U23" s="19">
+      <c r="X23" s="19">
         <v>6</v>
       </c>
-      <c r="V23" s="20">
-        <v>0</v>
-      </c>
-      <c r="W23" s="21">
-        <v>0</v>
-      </c>
-      <c r="X23" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="28">
+      <c r="Y23" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -3256,47 +3545,56 @@
       <c r="R24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S24" s="19">
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="38">
+        <v>0</v>
+      </c>
+      <c r="V24" s="19">
         <v>9.6</v>
       </c>
-      <c r="T24" s="19">
+      <c r="W24" s="19">
         <v>1.2</v>
       </c>
-      <c r="U24" s="19">
+      <c r="X24" s="19">
         <v>1.2</v>
       </c>
-      <c r="V24" s="20">
-        <v>0</v>
-      </c>
-      <c r="W24" s="21">
-        <v>0</v>
-      </c>
-      <c r="X24" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="28">
+      <c r="Y24" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34">
       <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
@@ -3331,7 +3629,7 @@
         <v>3600</v>
       </c>
       <c r="L25" s="36">
-        <v>0.66669999999999996</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="M25" s="6">
         <v>1.17</v>
@@ -3351,47 +3649,56 @@
       <c r="R25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="S25" s="19">
+      <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0</v>
+      </c>
+      <c r="U25" s="38">
+        <v>0</v>
+      </c>
+      <c r="V25" s="19">
         <v>27</v>
       </c>
-      <c r="T25" s="19">
+      <c r="W25" s="19">
         <v>25.2</v>
       </c>
-      <c r="U25" s="19">
+      <c r="X25" s="19">
         <v>37.799999999999997</v>
       </c>
-      <c r="V25" s="20">
-        <v>0</v>
-      </c>
-      <c r="W25" s="21">
-        <v>0</v>
-      </c>
-      <c r="X25" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="28">
+      <c r="Y25" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
@@ -3446,47 +3753,56 @@
       <c r="R26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="S26" s="19">
-        <v>0</v>
-      </c>
-      <c r="T26" s="19">
+      <c r="S26" s="2">
+        <v>0</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="38">
+        <v>0</v>
+      </c>
+      <c r="V26" s="19">
+        <v>0</v>
+      </c>
+      <c r="W26" s="19">
         <v>100</v>
       </c>
-      <c r="U26" s="19">
-        <v>0</v>
-      </c>
-      <c r="V26" s="20">
-        <v>0</v>
-      </c>
-      <c r="W26" s="21">
-        <v>0</v>
-      </c>
-      <c r="X26" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="4">
+      <c r="X26" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="4">
         <v>404</v>
       </c>
-      <c r="AA26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="28">
+      <c r="AD26" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34">
       <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
@@ -3541,47 +3857,56 @@
       <c r="R27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S27" s="19">
+      <c r="S27" s="2">
+        <v>0</v>
+      </c>
+      <c r="T27" s="2">
+        <v>1</v>
+      </c>
+      <c r="U27" s="38">
+        <v>1</v>
+      </c>
+      <c r="V27" s="19">
         <v>138</v>
       </c>
-      <c r="T27" s="19">
+      <c r="W27" s="19">
         <v>138</v>
       </c>
-      <c r="U27" s="19">
+      <c r="X27" s="19">
         <v>184</v>
       </c>
-      <c r="V27" s="20">
-        <v>0</v>
-      </c>
-      <c r="W27" s="21">
-        <v>0</v>
-      </c>
-      <c r="X27" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="28">
+      <c r="Y27" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34">
       <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
@@ -3636,47 +3961,56 @@
       <c r="R28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S28" s="19">
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="38">
+        <v>0</v>
+      </c>
+      <c r="V28" s="19">
         <v>1.5</v>
       </c>
-      <c r="T28" s="19">
+      <c r="W28" s="19">
         <v>6</v>
       </c>
-      <c r="U28" s="19">
+      <c r="X28" s="19">
         <v>22.5</v>
       </c>
-      <c r="V28" s="20">
-        <v>0</v>
-      </c>
-      <c r="W28" s="21">
-        <v>0</v>
-      </c>
-      <c r="X28" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="28">
+      <c r="Y28" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34">
       <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
@@ -3731,47 +4065,56 @@
       <c r="R29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S29" s="19">
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
+      <c r="U29" s="38">
+        <v>0</v>
+      </c>
+      <c r="V29" s="19">
         <v>1.6</v>
       </c>
-      <c r="T29" s="19">
+      <c r="W29" s="19">
         <v>6.4</v>
       </c>
-      <c r="U29" s="19">
+      <c r="X29" s="19">
         <v>24</v>
       </c>
-      <c r="V29" s="20">
-        <v>0</v>
-      </c>
-      <c r="W29" s="21">
-        <v>0</v>
-      </c>
-      <c r="X29" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="28">
+      <c r="Y29" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34">
       <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
@@ -3826,47 +4169,56 @@
       <c r="R30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S30" s="19">
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" s="2">
+        <v>1</v>
+      </c>
+      <c r="U30" s="38">
+        <v>1.75</v>
+      </c>
+      <c r="V30" s="19">
         <v>56</v>
       </c>
-      <c r="T30" s="19">
+      <c r="W30" s="19">
         <v>7</v>
       </c>
-      <c r="U30" s="19">
+      <c r="X30" s="19">
         <v>7</v>
       </c>
-      <c r="V30" s="20">
-        <v>0</v>
-      </c>
-      <c r="W30" s="21">
-        <v>0</v>
-      </c>
-      <c r="X30" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="28">
+      <c r="Y30" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -3921,47 +4273,56 @@
       <c r="R31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S31" s="19">
+      <c r="S31" s="2">
+        <v>0</v>
+      </c>
+      <c r="T31" s="2">
+        <v>1</v>
+      </c>
+      <c r="U31" s="38">
+        <v>1.53</v>
+      </c>
+      <c r="V31" s="19">
         <v>180</v>
       </c>
-      <c r="T31" s="19">
+      <c r="W31" s="19">
         <v>10</v>
       </c>
-      <c r="U31" s="19">
+      <c r="X31" s="19">
         <v>10</v>
       </c>
-      <c r="V31" s="20">
-        <v>0</v>
-      </c>
-      <c r="W31" s="21">
-        <v>0</v>
-      </c>
-      <c r="X31" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="28">
+      <c r="Y31" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34">
       <c r="A32" s="2" t="s">
         <v>54</v>
       </c>
@@ -3996,7 +4357,7 @@
         <v>6000</v>
       </c>
       <c r="L32" s="36">
-        <v>0.50800000000000001</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="M32" s="6">
         <v>3.33</v>
@@ -4016,47 +4377,56 @@
       <c r="R32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="S32" s="19">
+      <c r="S32" s="2">
+        <v>0</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0</v>
+      </c>
+      <c r="U32" s="38">
+        <v>0</v>
+      </c>
+      <c r="V32" s="19">
         <v>260</v>
       </c>
-      <c r="T32" s="19">
+      <c r="W32" s="19">
         <v>20</v>
       </c>
-      <c r="U32" s="19">
+      <c r="X32" s="19">
         <v>120</v>
       </c>
-      <c r="V32" s="20">
-        <v>0</v>
-      </c>
-      <c r="W32" s="21">
-        <v>0</v>
-      </c>
-      <c r="X32" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="24">
+      <c r="Y32" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="24">
         <v>140</v>
       </c>
-      <c r="AB32" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="28">
+      <c r="AE32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34">
       <c r="A33" s="2" t="s">
         <v>74</v>
       </c>
@@ -4111,47 +4481,56 @@
       <c r="R33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S33" s="19">
+      <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="2">
+        <v>1</v>
+      </c>
+      <c r="U33" s="38">
+        <v>1</v>
+      </c>
+      <c r="V33" s="19">
         <v>70</v>
       </c>
-      <c r="T33" s="19">
+      <c r="W33" s="19">
         <v>35</v>
       </c>
-      <c r="U33" s="19">
+      <c r="X33" s="19">
         <v>245</v>
       </c>
-      <c r="V33" s="20">
-        <v>0</v>
-      </c>
-      <c r="W33" s="21">
-        <v>0</v>
-      </c>
-      <c r="X33" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="28">
+      <c r="Y33" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34">
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
@@ -4206,47 +4585,56 @@
       <c r="R34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S34" s="19">
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2">
+        <v>1</v>
+      </c>
+      <c r="U34" s="38">
+        <v>1</v>
+      </c>
+      <c r="V34" s="19">
         <v>122.5</v>
       </c>
-      <c r="T34" s="19">
+      <c r="W34" s="19">
         <v>455</v>
       </c>
-      <c r="U34" s="19">
+      <c r="X34" s="19">
         <v>72.5</v>
       </c>
-      <c r="V34" s="20">
-        <v>0</v>
-      </c>
-      <c r="W34" s="21">
-        <v>0</v>
-      </c>
-      <c r="X34" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="28">
+      <c r="Y34" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34">
       <c r="A35" s="2" t="s">
         <v>55</v>
       </c>
@@ -4301,47 +4689,56 @@
       <c r="R35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S35" s="19">
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="38">
+        <v>0</v>
+      </c>
+      <c r="V35" s="19">
         <v>17.2</v>
       </c>
-      <c r="T35" s="19">
-        <v>0</v>
-      </c>
-      <c r="U35" s="19">
+      <c r="W35" s="19">
+        <v>0</v>
+      </c>
+      <c r="X35" s="19">
         <v>4.8</v>
       </c>
-      <c r="V35" s="20">
-        <v>0</v>
-      </c>
-      <c r="W35" s="21">
-        <v>0</v>
-      </c>
-      <c r="X35" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="28">
+      <c r="Y35" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34">
       <c r="A36" s="2" t="s">
         <v>56</v>
       </c>
@@ -4396,47 +4793,56 @@
       <c r="R36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S36" s="19">
-        <v>0</v>
-      </c>
-      <c r="T36" s="19">
-        <v>0</v>
-      </c>
-      <c r="U36" s="19">
-        <v>0</v>
-      </c>
-      <c r="V36" s="20">
-        <v>0</v>
-      </c>
-      <c r="W36" s="21">
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0</v>
+      </c>
+      <c r="U36" s="38">
+        <v>0</v>
+      </c>
+      <c r="V36" s="19">
+        <v>0</v>
+      </c>
+      <c r="W36" s="19">
+        <v>0</v>
+      </c>
+      <c r="X36" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="21">
         <v>26</v>
       </c>
-      <c r="X36" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="28">
+      <c r="AA36" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34">
       <c r="A37" s="2" t="s">
         <v>57</v>
       </c>
@@ -4489,45 +4895,1406 @@
         <v>0.09</v>
       </c>
       <c r="R37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S37" s="2">
+        <v>2</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="38">
+        <v>0</v>
+      </c>
+      <c r="V37" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="W37" s="19">
+        <v>18.8</v>
+      </c>
+      <c r="X37" s="19">
+        <v>3.8</v>
+      </c>
+      <c r="Y37" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34">
+      <c r="A38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="2">
+        <v>15</v>
+      </c>
+      <c r="D38" s="2">
+        <v>210</v>
+      </c>
+      <c r="E38" s="8">
+        <v>100</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="29">
+        <v>1</v>
+      </c>
+      <c r="H38" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="I38" s="4">
+        <v>2</v>
+      </c>
+      <c r="J38" s="29">
+        <v>0</v>
+      </c>
+      <c r="K38" s="29">
+        <v>0</v>
+      </c>
+      <c r="L38" s="36">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>6.67</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O38" s="29">
+        <v>0</v>
+      </c>
+      <c r="P38" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="Q38" s="34">
+        <v>0.16</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S38" s="2">
+        <v>0</v>
+      </c>
+      <c r="T38" s="2">
+        <v>0</v>
+      </c>
+      <c r="U38" s="38">
+        <v>0</v>
+      </c>
+      <c r="V38" s="19">
+        <v>0</v>
+      </c>
+      <c r="W38" s="19">
+        <v>0</v>
+      </c>
+      <c r="X38" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="23">
+        <v>35</v>
+      </c>
+      <c r="AC38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34">
+      <c r="A39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="2">
+        <v>70</v>
+      </c>
+      <c r="D39" s="2">
+        <v>210</v>
+      </c>
+      <c r="E39" s="8">
+        <v>15.4</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
+      <c r="G39" s="29">
+        <v>1</v>
+      </c>
+      <c r="H39" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="I39" s="4">
+        <v>2</v>
+      </c>
+      <c r="J39" s="29">
+        <v>0</v>
+      </c>
+      <c r="K39" s="29">
+        <v>0</v>
+      </c>
+      <c r="L39" s="36">
+        <v>0</v>
+      </c>
+      <c r="M39" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O39" s="29">
+        <v>0</v>
+      </c>
+      <c r="P39" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="34">
+        <v>0.12</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="S39" s="2">
+        <v>0</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0</v>
+      </c>
+      <c r="U39" s="38">
+        <v>0</v>
+      </c>
+      <c r="V39" s="19">
+        <v>3</v>
+      </c>
+      <c r="W39" s="19">
+        <v>3</v>
+      </c>
+      <c r="X39" s="19">
+        <v>14</v>
+      </c>
+      <c r="Y39" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34">
+      <c r="A40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2">
+        <v>30</v>
+      </c>
+      <c r="D40" s="2">
+        <v>210</v>
+      </c>
+      <c r="E40" s="8">
+        <v>26.7</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="29">
+        <v>1</v>
+      </c>
+      <c r="H40" s="32">
+        <v>0.16</v>
+      </c>
+      <c r="I40" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="J40" s="29">
+        <v>0</v>
+      </c>
+      <c r="K40" s="29">
+        <v>0</v>
+      </c>
+      <c r="L40" s="36">
+        <v>0</v>
+      </c>
+      <c r="M40" s="6">
+        <v>10</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O40" s="29">
+        <v>0</v>
+      </c>
+      <c r="P40" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="Q40" s="34">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
+      <c r="U40" s="38">
+        <v>0</v>
+      </c>
+      <c r="V40" s="19">
+        <v>0</v>
+      </c>
+      <c r="W40" s="19">
+        <v>4</v>
+      </c>
+      <c r="X40" s="19">
+        <v>36</v>
+      </c>
+      <c r="Y40" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34">
+      <c r="A41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="2">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2">
+        <v>210</v>
+      </c>
+      <c r="E41" s="8">
+        <v>26.7</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0</v>
+      </c>
+      <c r="G41" s="29">
+        <v>1</v>
+      </c>
+      <c r="H41" s="32">
+        <v>0.36</v>
+      </c>
+      <c r="I41" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="J41" s="29">
+        <v>0</v>
+      </c>
+      <c r="K41" s="29">
+        <v>0</v>
+      </c>
+      <c r="L41" s="36">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <v>7</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O41" s="29">
+        <v>0</v>
+      </c>
+      <c r="P41" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="Q41" s="34">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0</v>
+      </c>
+      <c r="U41" s="38">
+        <v>0</v>
+      </c>
+      <c r="V41" s="19">
+        <v>1.3</v>
+      </c>
+      <c r="W41" s="19">
+        <v>3.2</v>
+      </c>
+      <c r="X41" s="19">
+        <v>27.5</v>
+      </c>
+      <c r="Y41" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34">
+      <c r="A42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2">
+        <v>210</v>
+      </c>
+      <c r="E42" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0</v>
+      </c>
+      <c r="G42" s="29">
+        <v>7</v>
+      </c>
+      <c r="H42" s="32">
+        <v>0.06</v>
+      </c>
+      <c r="I42" s="4">
+        <v>2</v>
+      </c>
+      <c r="J42" s="29">
+        <v>700</v>
+      </c>
+      <c r="K42" s="29">
+        <v>1400</v>
+      </c>
+      <c r="L42" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="M42" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O42" s="29">
+        <v>0</v>
+      </c>
+      <c r="P42" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q42" s="34">
+        <v>0.22</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S42" s="2">
+        <v>0</v>
+      </c>
+      <c r="T42" s="2">
+        <v>0</v>
+      </c>
+      <c r="U42" s="38">
+        <v>0</v>
+      </c>
+      <c r="V42" s="19">
+        <v>4</v>
+      </c>
+      <c r="W42" s="19">
         <v>32</v>
       </c>
-      <c r="S37" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="T37" s="19">
-        <v>18.8</v>
-      </c>
-      <c r="U37" s="19">
-        <v>3.8</v>
-      </c>
-      <c r="V37" s="20">
-        <v>0</v>
-      </c>
-      <c r="W37" s="21">
-        <v>0</v>
-      </c>
-      <c r="X37" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="28">
+      <c r="X42" s="19">
+        <v>4</v>
+      </c>
+      <c r="Y42" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34">
+      <c r="A43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="2">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2">
+        <v>210</v>
+      </c>
+      <c r="E43" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0</v>
+      </c>
+      <c r="G43" s="29">
+        <v>7</v>
+      </c>
+      <c r="H43" s="32">
+        <v>0.06</v>
+      </c>
+      <c r="I43" s="4">
+        <v>2</v>
+      </c>
+      <c r="J43" s="29">
+        <v>900</v>
+      </c>
+      <c r="K43" s="29">
+        <v>1800</v>
+      </c>
+      <c r="L43" s="36">
+        <v>0.26</v>
+      </c>
+      <c r="M43" s="6">
+        <v>4.33</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O43" s="29">
+        <v>0</v>
+      </c>
+      <c r="P43" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="Q43" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
+        <v>0</v>
+      </c>
+      <c r="U43" s="38">
+        <v>0</v>
+      </c>
+      <c r="V43" s="19">
+        <v>5</v>
+      </c>
+      <c r="W43" s="19">
+        <v>40</v>
+      </c>
+      <c r="X43" s="19">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34">
+      <c r="A44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="2">
+        <v>36</v>
+      </c>
+      <c r="D44" s="2">
+        <v>210</v>
+      </c>
+      <c r="E44" s="8">
+        <v>15.4</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0</v>
+      </c>
+      <c r="G44" s="29">
+        <v>1</v>
+      </c>
+      <c r="H44" s="32">
+        <v>0.06</v>
+      </c>
+      <c r="I44" s="4">
+        <v>2</v>
+      </c>
+      <c r="J44" s="29">
+        <v>0</v>
+      </c>
+      <c r="K44" s="29">
+        <v>0</v>
+      </c>
+      <c r="L44" s="36">
+        <v>0</v>
+      </c>
+      <c r="M44" s="6">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O44" s="29">
+        <v>0</v>
+      </c>
+      <c r="P44" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="Q44" s="34">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S44" s="2">
+        <v>2</v>
+      </c>
+      <c r="T44" s="2">
+        <v>0</v>
+      </c>
+      <c r="U44" s="38">
+        <v>0</v>
+      </c>
+      <c r="V44" s="19">
+        <v>21</v>
+      </c>
+      <c r="W44" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="X44" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="Y44" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34">
+      <c r="A45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="2">
+        <v>30</v>
+      </c>
+      <c r="D45" s="2">
+        <v>210</v>
+      </c>
+      <c r="E45" s="8">
+        <v>11.1</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0</v>
+      </c>
+      <c r="G45" s="29">
+        <v>1</v>
+      </c>
+      <c r="H45" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="J45" s="29">
+        <v>0</v>
+      </c>
+      <c r="K45" s="29">
+        <v>0</v>
+      </c>
+      <c r="L45" s="36">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O45" s="29">
+        <v>0</v>
+      </c>
+      <c r="P45" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="Q45" s="34">
+        <v>0.06</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S45" s="2">
+        <v>0</v>
+      </c>
+      <c r="T45" s="2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="38">
+        <v>0</v>
+      </c>
+      <c r="V45" s="19">
+        <v>18</v>
+      </c>
+      <c r="W45" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="X45" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="Y45" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34">
+      <c r="A46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="2">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2">
+        <v>210</v>
+      </c>
+      <c r="E46" s="8">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0</v>
+      </c>
+      <c r="G46" s="29">
+        <v>1</v>
+      </c>
+      <c r="H46" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="I46" s="4">
+        <v>2</v>
+      </c>
+      <c r="J46" s="29">
+        <v>0</v>
+      </c>
+      <c r="K46" s="29">
+        <v>0</v>
+      </c>
+      <c r="L46" s="36">
+        <v>0</v>
+      </c>
+      <c r="M46" s="6">
+        <v>1.58</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O46" s="29">
+        <v>0</v>
+      </c>
+      <c r="P46" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S46" s="2">
+        <v>0</v>
+      </c>
+      <c r="T46" s="2">
+        <v>0</v>
+      </c>
+      <c r="U46" s="38">
+        <v>0</v>
+      </c>
+      <c r="V46" s="19">
+        <v>13</v>
+      </c>
+      <c r="W46" s="19">
+        <v>13</v>
+      </c>
+      <c r="X46" s="19">
+        <v>104</v>
+      </c>
+      <c r="Y46" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34">
+      <c r="A47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="2">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2">
+        <v>210</v>
+      </c>
+      <c r="E47" s="8">
+        <v>11.1</v>
+      </c>
+      <c r="F47" s="8">
+        <v>0</v>
+      </c>
+      <c r="G47" s="29">
+        <v>1</v>
+      </c>
+      <c r="H47" s="32">
+        <v>0.22</v>
+      </c>
+      <c r="I47" s="4">
+        <v>2</v>
+      </c>
+      <c r="J47" s="29">
+        <v>0</v>
+      </c>
+      <c r="K47" s="29">
+        <v>0</v>
+      </c>
+      <c r="L47" s="36">
+        <v>0</v>
+      </c>
+      <c r="M47" s="6">
+        <v>6.17</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O47" s="29">
+        <v>0</v>
+      </c>
+      <c r="P47" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="Q47" s="34">
+        <v>0.22</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="38">
+        <v>0</v>
+      </c>
+      <c r="V47" s="19">
+        <v>20.9</v>
+      </c>
+      <c r="W47" s="19">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="X47" s="19">
+        <v>20.9</v>
+      </c>
+      <c r="Y47" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34">
+      <c r="A48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="2">
+        <v>70</v>
+      </c>
+      <c r="D48" s="2">
+        <v>420</v>
+      </c>
+      <c r="E48" s="8">
+        <v>15.4</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0</v>
+      </c>
+      <c r="G48" s="29">
+        <v>1</v>
+      </c>
+      <c r="H48" s="32">
+        <v>0.24</v>
+      </c>
+      <c r="I48" s="4">
+        <v>3</v>
+      </c>
+      <c r="J48" s="29">
+        <v>0</v>
+      </c>
+      <c r="K48" s="29">
+        <v>0</v>
+      </c>
+      <c r="L48" s="36">
+        <v>0</v>
+      </c>
+      <c r="M48" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O48" s="29">
+        <v>0</v>
+      </c>
+      <c r="P48" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="Q48" s="34">
+        <v>0.08</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S48" s="2">
+        <v>0</v>
+      </c>
+      <c r="T48" s="2">
+        <v>0</v>
+      </c>
+      <c r="U48" s="38">
+        <v>0</v>
+      </c>
+      <c r="V48" s="19">
+        <v>9</v>
+      </c>
+      <c r="W48" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="X48" s="19">
+        <v>7.2</v>
+      </c>
+      <c r="Y48" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34">
+      <c r="A49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="2">
+        <v>28</v>
+      </c>
+      <c r="D49" s="2">
+        <v>210</v>
+      </c>
+      <c r="E49" s="8">
+        <v>23.5</v>
+      </c>
+      <c r="F49" s="8">
+        <v>0</v>
+      </c>
+      <c r="G49" s="29">
+        <v>1</v>
+      </c>
+      <c r="H49" s="32">
+        <v>0.18</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="J49" s="29">
+        <v>0</v>
+      </c>
+      <c r="K49" s="29">
+        <v>0</v>
+      </c>
+      <c r="L49" s="36">
+        <v>0</v>
+      </c>
+      <c r="M49" s="6">
+        <v>10</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O49" s="29">
+        <v>0</v>
+      </c>
+      <c r="P49" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q49" s="34">
+        <v>0.18</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="S49" s="2">
+        <v>0</v>
+      </c>
+      <c r="T49" s="2">
+        <v>0</v>
+      </c>
+      <c r="U49" s="38">
+        <v>0</v>
+      </c>
+      <c r="V49" s="19">
+        <v>8.4</v>
+      </c>
+      <c r="W49" s="19">
+        <v>16.8</v>
+      </c>
+      <c r="X49" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="Y49" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34">
+      <c r="A50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="2">
+        <v>48</v>
+      </c>
+      <c r="D50" s="2">
+        <v>288</v>
+      </c>
+      <c r="E50" s="8">
+        <v>16.7</v>
+      </c>
+      <c r="F50" s="8">
+        <v>1</v>
+      </c>
+      <c r="G50" s="29">
+        <v>1</v>
+      </c>
+      <c r="H50" s="32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I50" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J50" s="29">
+        <v>0</v>
+      </c>
+      <c r="K50" s="29">
+        <v>0</v>
+      </c>
+      <c r="L50" s="36">
+        <v>0</v>
+      </c>
+      <c r="M50" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O50" s="29">
+        <v>0</v>
+      </c>
+      <c r="P50" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="Q50" s="34">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S50" s="2">
+        <v>0</v>
+      </c>
+      <c r="T50" s="2">
+        <v>4</v>
+      </c>
+      <c r="U50" s="38">
+        <v>4</v>
+      </c>
+      <c r="V50" s="19">
+        <v>0</v>
+      </c>
+      <c r="W50" s="19">
+        <v>0</v>
+      </c>
+      <c r="X50" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="24">
+        <v>132</v>
+      </c>
+      <c r="AE50" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="28">
         <v>0</v>
       </c>
     </row>

--- a/Document/WeaponTable.xlsx
+++ b/Document/WeaponTable.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939DF3FF-512A-46C0-B950-A6DF55389A63}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA917502-F845-407F-8989-BF4FBF97598E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="114">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,45 @@
   </si>
   <si>
     <t>Burst</t>
+  </si>
+  <si>
+    <t>Grakata</t>
+  </si>
+  <si>
+    <t>Grinlok</t>
+  </si>
+  <si>
+    <t>Hek</t>
+  </si>
+  <si>
+    <t>Hema</t>
+  </si>
+  <si>
+    <t>Ignis</t>
+  </si>
+  <si>
+    <t>IgnisWraith</t>
+  </si>
+  <si>
+    <t>Rifle</t>
+  </si>
+  <si>
+    <t>Shotgun</t>
+  </si>
+  <si>
+    <t>Harpak#0</t>
+  </si>
+  <si>
+    <t>Harpak#1</t>
+  </si>
+  <si>
+    <t>Hind#1</t>
+  </si>
+  <si>
+    <t>Hind#0</t>
+  </si>
+  <si>
+    <t>Held</t>
   </si>
 </sst>
 </file>
@@ -646,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -670,66 +709,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -760,6 +739,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1055,14 +1100,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:AH60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5670" ySplit="600" topLeftCell="B31" activePane="bottomRight"/>
+      <pane xSplit="2130" ySplit="600" topLeftCell="A29" activePane="bottomRight"/>
       <selection activeCell="Z40" sqref="Z40"/>
-      <selection pane="topRight" activeCell="E22" sqref="E22"/>
-      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
-      <selection pane="bottomRight" activeCell="AF40" sqref="AF40"/>
+      <selection pane="topRight" activeCell="V1" sqref="V1:AH1048576"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
@@ -1071,31 +1116,31 @@
     <col min="2" max="2" width="12.5703125" style="6"/>
     <col min="3" max="4" width="12.5703125" style="2"/>
     <col min="5" max="6" width="12.5703125" style="8"/>
-    <col min="7" max="7" width="12.5703125" style="29"/>
-    <col min="8" max="8" width="16.5703125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="9"/>
+    <col min="8" max="8" width="16.5703125" style="12" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" style="29"/>
-    <col min="12" max="12" width="14.5703125" style="36" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" style="9"/>
+    <col min="12" max="12" width="14.5703125" style="16" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="6"/>
     <col min="14" max="14" width="12.5703125" style="2"/>
-    <col min="15" max="15" width="16.5703125" style="29" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" style="9" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" style="8"/>
-    <col min="17" max="17" width="12.5703125" style="34"/>
+    <col min="17" max="17" width="12.5703125" style="14"/>
     <col min="18" max="18" width="12.7109375" style="2" customWidth="1"/>
     <col min="19" max="19" width="16.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="18.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" style="38" customWidth="1"/>
-    <col min="22" max="24" width="12.5703125" style="19"/>
-    <col min="25" max="25" width="12.5703125" style="20"/>
-    <col min="26" max="26" width="12.5703125" style="21"/>
-    <col min="27" max="27" width="12.5703125" style="22"/>
-    <col min="28" max="28" width="12.5703125" style="23"/>
-    <col min="29" max="29" width="12.5703125" style="4"/>
-    <col min="30" max="30" width="12.5703125" style="24"/>
-    <col min="31" max="31" width="12.5703125" style="25"/>
-    <col min="32" max="32" width="12.5703125" style="26"/>
-    <col min="33" max="33" width="12.5703125" style="27"/>
-    <col min="34" max="34" width="12.5703125" style="28"/>
+    <col min="21" max="21" width="16.7109375" style="18" customWidth="1"/>
+    <col min="22" max="24" width="12.5703125" style="30"/>
+    <col min="25" max="25" width="12.5703125" style="31"/>
+    <col min="26" max="26" width="12.5703125" style="32"/>
+    <col min="27" max="27" width="12.5703125" style="33"/>
+    <col min="28" max="28" width="12.5703125" style="34"/>
+    <col min="29" max="29" width="12.5703125" style="35"/>
+    <col min="30" max="30" width="12.5703125" style="36"/>
+    <col min="31" max="31" width="12.5703125" style="37"/>
+    <col min="32" max="32" width="12.5703125" style="38"/>
+    <col min="33" max="33" width="12.5703125" style="39"/>
+    <col min="34" max="34" width="12.5703125" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1">
@@ -1117,22 +1162,22 @@
       <c r="F1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="15" t="s">
         <v>64</v>
       </c>
       <c r="M1" s="5" t="s">
@@ -1141,13 +1186,13 @@
       <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="10" t="s">
         <v>24</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -1159,46 +1204,46 @@
       <c r="T1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AD1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AE1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AF1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AG1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AH1" s="29" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1221,22 +1266,22 @@
       <c r="F2" s="8">
         <v>0</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="9">
         <v>1</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="12">
         <v>0.32</v>
       </c>
       <c r="I2" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J2" s="29">
-        <v>0</v>
-      </c>
-      <c r="K2" s="29">
-        <v>0</v>
-      </c>
-      <c r="L2" s="36">
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="16">
         <v>0</v>
       </c>
       <c r="M2" s="6">
@@ -1245,13 +1290,13 @@
       <c r="N2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="29">
+      <c r="O2" s="9">
         <v>0</v>
       </c>
       <c r="P2" s="8">
         <v>2.6</v>
       </c>
-      <c r="Q2" s="34">
+      <c r="Q2" s="14">
         <v>0.22</v>
       </c>
       <c r="R2" s="2" t="s">
@@ -1263,46 +1308,46 @@
       <c r="T2" s="2">
         <v>0</v>
       </c>
-      <c r="U2" s="38">
-        <v>0</v>
-      </c>
-      <c r="V2" s="19">
-        <v>0</v>
-      </c>
-      <c r="W2" s="19">
-        <v>0</v>
-      </c>
-      <c r="X2" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="22">
+      <c r="U2" s="18">
+        <v>0</v>
+      </c>
+      <c r="V2" s="30">
+        <v>0</v>
+      </c>
+      <c r="W2" s="30">
+        <v>0</v>
+      </c>
+      <c r="X2" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="33">
         <v>22</v>
       </c>
-      <c r="AB2" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="28">
+      <c r="AB2" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="40">
         <v>0</v>
       </c>
     </row>
@@ -1325,22 +1370,22 @@
       <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="9">
         <v>1</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="12">
         <v>0.22</v>
       </c>
       <c r="I3" s="4">
         <v>1.6</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="9">
         <v>1000</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="9">
         <v>2000</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="16">
         <v>0.33329999999999999</v>
       </c>
       <c r="M3" s="6">
@@ -1349,13 +1394,13 @@
       <c r="N3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="9">
         <v>0</v>
       </c>
       <c r="P3" s="8">
         <v>2.8</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="14">
         <v>0.28000000000000003</v>
       </c>
       <c r="R3" s="2" t="s">
@@ -1367,46 +1412,46 @@
       <c r="T3" s="2">
         <v>0</v>
       </c>
-      <c r="U3" s="38">
-        <v>0</v>
-      </c>
-      <c r="V3" s="19">
-        <v>0</v>
-      </c>
-      <c r="W3" s="19">
-        <v>0</v>
-      </c>
-      <c r="X3" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="24">
+      <c r="U3" s="18">
+        <v>0</v>
+      </c>
+      <c r="V3" s="30">
+        <v>0</v>
+      </c>
+      <c r="W3" s="30">
+        <v>0</v>
+      </c>
+      <c r="X3" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="36">
         <v>600</v>
       </c>
-      <c r="AE3" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="28">
+      <c r="AE3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="40">
         <v>0</v>
       </c>
     </row>
@@ -1429,22 +1474,22 @@
       <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="12">
         <v>0.27</v>
       </c>
       <c r="I4" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J4" s="29">
-        <v>0</v>
-      </c>
-      <c r="K4" s="29">
-        <v>0</v>
-      </c>
-      <c r="L4" s="36">
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="16">
         <v>0</v>
       </c>
       <c r="M4" s="6">
@@ -1453,13 +1498,13 @@
       <c r="N4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="9">
         <v>0</v>
       </c>
       <c r="P4" s="8">
         <v>2.4</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="14">
         <v>0.19</v>
       </c>
       <c r="R4" s="2" t="s">
@@ -1471,46 +1516,46 @@
       <c r="T4" s="2">
         <v>0</v>
       </c>
-      <c r="U4" s="38">
-        <v>0</v>
-      </c>
-      <c r="V4" s="19">
+      <c r="U4" s="18">
+        <v>0</v>
+      </c>
+      <c r="V4" s="30">
         <v>26.2</v>
       </c>
-      <c r="W4" s="19">
+      <c r="W4" s="30">
         <v>24.5</v>
       </c>
-      <c r="X4" s="19">
+      <c r="X4" s="30">
         <v>6.3</v>
       </c>
-      <c r="Y4" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="28">
+      <c r="Y4" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="40">
         <v>0</v>
       </c>
     </row>
@@ -1533,22 +1578,22 @@
       <c r="F5" s="8">
         <v>0</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="9">
         <v>1</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="12">
         <v>0.09</v>
       </c>
       <c r="I5" s="4">
         <v>1.5</v>
       </c>
-      <c r="J5" s="29">
-        <v>0</v>
-      </c>
-      <c r="K5" s="29">
-        <v>0</v>
-      </c>
-      <c r="L5" s="36">
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16">
         <v>0</v>
       </c>
       <c r="M5" s="6">
@@ -1557,13 +1602,13 @@
       <c r="N5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="9">
         <v>0</v>
       </c>
       <c r="P5" s="8">
         <v>2.4</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="14">
         <v>0.27</v>
       </c>
       <c r="R5" s="2" t="s">
@@ -1575,46 +1620,46 @@
       <c r="T5" s="2">
         <v>0</v>
       </c>
-      <c r="U5" s="38">
-        <v>0</v>
-      </c>
-      <c r="V5" s="19">
+      <c r="U5" s="18">
+        <v>0</v>
+      </c>
+      <c r="V5" s="30">
         <v>26.2</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="30">
         <v>24.5</v>
       </c>
-      <c r="X5" s="19">
+      <c r="X5" s="30">
         <v>6.3</v>
       </c>
-      <c r="Y5" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="28">
+      <c r="Y5" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="40">
         <v>0</v>
       </c>
     </row>
@@ -1637,22 +1682,22 @@
       <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="9">
         <v>1</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="12">
         <v>0.17</v>
       </c>
       <c r="I6" s="4">
         <v>1.9</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="9">
         <v>3000</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="9">
         <v>6000</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="16">
         <v>0.5</v>
       </c>
       <c r="M6" s="6">
@@ -1661,13 +1706,13 @@
       <c r="N6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="9">
         <v>0</v>
       </c>
       <c r="P6" s="8">
         <v>2</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="14">
         <v>0.33</v>
       </c>
       <c r="R6" s="2" t="s">
@@ -1679,46 +1724,46 @@
       <c r="T6" s="2">
         <v>0</v>
       </c>
-      <c r="U6" s="38">
-        <v>0</v>
-      </c>
-      <c r="V6" s="19">
+      <c r="U6" s="18">
+        <v>0</v>
+      </c>
+      <c r="V6" s="30">
         <v>78</v>
       </c>
-      <c r="W6" s="19">
+      <c r="W6" s="30">
         <v>70</v>
       </c>
-      <c r="X6" s="19">
+      <c r="X6" s="30">
         <v>42</v>
       </c>
-      <c r="Y6" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="28">
+      <c r="Y6" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="40">
         <v>0</v>
       </c>
     </row>
@@ -1741,22 +1786,22 @@
       <c r="F7" s="8">
         <v>0</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="9">
         <v>1</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="12">
         <v>0.25</v>
       </c>
       <c r="I7" s="4">
         <v>3</v>
       </c>
-      <c r="J7" s="29">
-        <v>0</v>
-      </c>
-      <c r="K7" s="29">
-        <v>0</v>
-      </c>
-      <c r="L7" s="36">
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
         <v>0</v>
       </c>
       <c r="M7" s="6">
@@ -1765,13 +1810,13 @@
       <c r="N7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="9">
         <v>0</v>
       </c>
       <c r="P7" s="8">
         <v>2.8</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="14">
         <v>0.1</v>
       </c>
       <c r="R7" s="2" t="s">
@@ -1783,46 +1828,46 @@
       <c r="T7" s="2">
         <v>0</v>
       </c>
-      <c r="U7" s="38">
-        <v>0</v>
-      </c>
-      <c r="V7" s="19">
+      <c r="U7" s="18">
+        <v>0</v>
+      </c>
+      <c r="V7" s="30">
         <v>16</v>
       </c>
-      <c r="W7" s="19">
+      <c r="W7" s="30">
         <v>4</v>
       </c>
-      <c r="X7" s="19">
+      <c r="X7" s="30">
         <v>60</v>
       </c>
-      <c r="Y7" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="28">
+      <c r="Y7" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="40">
         <v>0</v>
       </c>
     </row>
@@ -1845,22 +1890,22 @@
       <c r="F8" s="8">
         <v>0</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="9">
         <v>1</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="12">
         <v>0.32</v>
       </c>
       <c r="I8" s="4">
         <v>2.4</v>
       </c>
-      <c r="J8" s="29">
-        <v>0</v>
-      </c>
-      <c r="K8" s="29">
-        <v>0</v>
-      </c>
-      <c r="L8" s="36">
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
         <v>0</v>
       </c>
       <c r="M8" s="6">
@@ -1869,13 +1914,13 @@
       <c r="N8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="9">
         <v>0</v>
       </c>
       <c r="P8" s="8">
         <v>2</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="14">
         <v>0.18</v>
       </c>
       <c r="R8" s="2" t="s">
@@ -1887,46 +1932,46 @@
       <c r="T8" s="2">
         <v>0</v>
       </c>
-      <c r="U8" s="38">
-        <v>0</v>
-      </c>
-      <c r="V8" s="19">
-        <v>0</v>
-      </c>
-      <c r="W8" s="19">
-        <v>0</v>
-      </c>
-      <c r="X8" s="19">
+      <c r="U8" s="18">
+        <v>0</v>
+      </c>
+      <c r="V8" s="30">
+        <v>0</v>
+      </c>
+      <c r="W8" s="30">
+        <v>0</v>
+      </c>
+      <c r="X8" s="30">
         <v>24</v>
       </c>
-      <c r="Y8" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="26">
+      <c r="Y8" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="38">
         <v>42</v>
       </c>
-      <c r="AG8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="28">
+      <c r="AG8" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="40">
         <v>0</v>
       </c>
     </row>
@@ -1949,22 +1994,22 @@
       <c r="F9" s="8">
         <v>0.4</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="9">
         <v>1</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="12">
         <v>0.34</v>
       </c>
       <c r="I9" s="4">
         <v>3</v>
       </c>
-      <c r="J9" s="29">
-        <v>0</v>
-      </c>
-      <c r="K9" s="29">
-        <v>0</v>
-      </c>
-      <c r="L9" s="36">
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
         <v>0</v>
       </c>
       <c r="M9" s="6">
@@ -1973,13 +2018,13 @@
       <c r="N9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="9">
         <v>200</v>
       </c>
       <c r="P9" s="8">
         <v>2</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="14">
         <v>0.08</v>
       </c>
       <c r="R9" s="2" t="s">
@@ -1991,46 +2036,46 @@
       <c r="T9" s="2">
         <v>1</v>
       </c>
-      <c r="U9" s="38">
+      <c r="U9" s="18">
         <v>1</v>
       </c>
-      <c r="V9" s="19">
-        <v>0</v>
-      </c>
-      <c r="W9" s="19">
-        <v>0</v>
-      </c>
-      <c r="X9" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="24">
+      <c r="V9" s="30">
+        <v>0</v>
+      </c>
+      <c r="W9" s="30">
+        <v>0</v>
+      </c>
+      <c r="X9" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="36">
         <v>208</v>
       </c>
-      <c r="AE9" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="28">
+      <c r="AE9" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2053,22 +2098,22 @@
       <c r="F10" s="8">
         <v>0</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="12">
         <v>0.26</v>
       </c>
       <c r="I10" s="4">
         <v>3</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="9">
         <v>2200</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="9">
         <v>3400</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="16">
         <v>0.5</v>
       </c>
       <c r="M10" s="6">
@@ -2077,13 +2122,13 @@
       <c r="N10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="9">
         <v>0</v>
       </c>
       <c r="P10" s="8">
         <v>1.4</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="14">
         <v>0.1</v>
       </c>
       <c r="R10" s="2" t="s">
@@ -2095,46 +2140,46 @@
       <c r="T10" s="2">
         <v>0</v>
       </c>
-      <c r="U10" s="38">
-        <v>0</v>
-      </c>
-      <c r="V10" s="19">
+      <c r="U10" s="18">
+        <v>0</v>
+      </c>
+      <c r="V10" s="30">
         <v>3.5</v>
       </c>
-      <c r="W10" s="19">
+      <c r="W10" s="30">
         <v>5.8</v>
       </c>
-      <c r="X10" s="19">
+      <c r="X10" s="30">
         <v>6.7</v>
       </c>
-      <c r="Y10" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="28">
+      <c r="Y10" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2157,22 +2202,22 @@
       <c r="F11" s="8">
         <v>0</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="9">
         <v>8</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="12">
         <v>0.1</v>
       </c>
       <c r="I11" s="4">
         <v>1.5</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="9">
         <v>1500</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="9">
         <v>2500</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="16">
         <v>0.5</v>
       </c>
       <c r="M11" s="6">
@@ -2181,13 +2226,13 @@
       <c r="N11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="9">
         <v>0</v>
       </c>
       <c r="P11" s="8">
         <v>2.7</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="14">
         <v>0.2</v>
       </c>
       <c r="R11" s="2" t="s">
@@ -2199,46 +2244,46 @@
       <c r="T11" s="2">
         <v>0</v>
       </c>
-      <c r="U11" s="38">
-        <v>0</v>
-      </c>
-      <c r="V11" s="19">
+      <c r="U11" s="18">
+        <v>0</v>
+      </c>
+      <c r="V11" s="30">
         <v>6.6</v>
       </c>
-      <c r="W11" s="19">
+      <c r="W11" s="30">
         <v>12.1</v>
       </c>
-      <c r="X11" s="19">
+      <c r="X11" s="30">
         <v>3.3</v>
       </c>
-      <c r="Y11" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="28">
+      <c r="Y11" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2261,22 +2306,22 @@
       <c r="F12" s="8">
         <v>0</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="9">
         <v>8</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="12">
         <v>0.15</v>
       </c>
       <c r="I12" s="4">
         <v>2</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="9">
         <v>1800</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="9">
         <v>2500</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="16">
         <v>0.3</v>
       </c>
       <c r="M12" s="6">
@@ -2285,13 +2330,13 @@
       <c r="N12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="29">
+      <c r="O12" s="9">
         <v>0</v>
       </c>
       <c r="P12" s="8">
         <v>2.8</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="14">
         <v>0.3</v>
       </c>
       <c r="R12" s="2" t="s">
@@ -2303,46 +2348,46 @@
       <c r="T12" s="2">
         <v>0</v>
       </c>
-      <c r="U12" s="38">
-        <v>0</v>
-      </c>
-      <c r="V12" s="19">
+      <c r="U12" s="18">
+        <v>0</v>
+      </c>
+      <c r="V12" s="30">
         <v>8</v>
       </c>
-      <c r="W12" s="19">
+      <c r="W12" s="30">
         <v>26</v>
       </c>
-      <c r="X12" s="19">
+      <c r="X12" s="30">
         <v>6</v>
       </c>
-      <c r="Y12" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="28">
+      <c r="Y12" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2365,22 +2410,22 @@
       <c r="F13" s="8">
         <v>0</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="9">
         <v>1</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="12">
         <v>0.1</v>
       </c>
       <c r="I13" s="4">
         <v>1.8</v>
       </c>
-      <c r="J13" s="29">
-        <v>0</v>
-      </c>
-      <c r="K13" s="29">
-        <v>0</v>
-      </c>
-      <c r="L13" s="36">
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="16">
         <v>0</v>
       </c>
       <c r="M13" s="6">
@@ -2389,13 +2434,13 @@
       <c r="N13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O13" s="9">
         <v>0</v>
       </c>
       <c r="P13" s="8">
         <v>2.6</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="14">
         <v>0.14000000000000001</v>
       </c>
       <c r="R13" s="2" t="s">
@@ -2407,46 +2452,46 @@
       <c r="T13" s="2">
         <v>0</v>
       </c>
-      <c r="U13" s="38">
-        <v>0</v>
-      </c>
-      <c r="V13" s="19">
+      <c r="U13" s="18">
+        <v>0</v>
+      </c>
+      <c r="V13" s="30">
         <v>2.5</v>
       </c>
-      <c r="W13" s="19">
+      <c r="W13" s="30">
         <v>2.5</v>
       </c>
-      <c r="X13" s="19">
+      <c r="X13" s="30">
         <v>20</v>
       </c>
-      <c r="Y13" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="28">
+      <c r="Y13" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2469,22 +2514,22 @@
       <c r="F14" s="8">
         <v>0</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="9">
         <v>1</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="12">
         <v>0.12</v>
       </c>
       <c r="I14" s="4">
         <v>2</v>
       </c>
-      <c r="J14" s="29">
-        <v>0</v>
-      </c>
-      <c r="K14" s="29">
-        <v>0</v>
-      </c>
-      <c r="L14" s="36">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="16">
         <v>0</v>
       </c>
       <c r="M14" s="6">
@@ -2493,13 +2538,13 @@
       <c r="N14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="29">
+      <c r="O14" s="9">
         <v>0</v>
       </c>
       <c r="P14" s="8">
         <v>2.4</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14" s="14">
         <v>0.34</v>
       </c>
       <c r="R14" s="2" t="s">
@@ -2511,46 +2556,46 @@
       <c r="T14" s="2">
         <v>0</v>
       </c>
-      <c r="U14" s="38">
-        <v>0</v>
-      </c>
-      <c r="V14" s="19">
-        <v>0</v>
-      </c>
-      <c r="W14" s="19">
+      <c r="U14" s="18">
+        <v>0</v>
+      </c>
+      <c r="V14" s="30">
+        <v>0</v>
+      </c>
+      <c r="W14" s="30">
         <v>4.5999999999999996</v>
       </c>
-      <c r="X14" s="19">
+      <c r="X14" s="30">
         <v>41.4</v>
       </c>
-      <c r="Y14" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="28">
+      <c r="Y14" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2573,22 +2618,22 @@
       <c r="F15" s="8">
         <v>0</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="9">
         <v>1</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="12">
         <v>0.12</v>
       </c>
       <c r="I15" s="4">
         <v>1.6</v>
       </c>
-      <c r="J15" s="29">
-        <v>0</v>
-      </c>
-      <c r="K15" s="29">
-        <v>0</v>
-      </c>
-      <c r="L15" s="36">
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="16">
         <v>0</v>
       </c>
       <c r="M15" s="6">
@@ -2597,13 +2642,13 @@
       <c r="N15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="9">
         <v>0</v>
       </c>
       <c r="P15" s="8">
         <v>2</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="14">
         <v>0.06</v>
       </c>
       <c r="R15" s="2" t="s">
@@ -2615,46 +2660,46 @@
       <c r="T15" s="2">
         <v>0</v>
       </c>
-      <c r="U15" s="38">
-        <v>0</v>
-      </c>
-      <c r="V15" s="19">
+      <c r="U15" s="18">
+        <v>0</v>
+      </c>
+      <c r="V15" s="30">
         <v>8.1999999999999993</v>
       </c>
-      <c r="W15" s="19">
+      <c r="W15" s="30">
         <v>7.9</v>
       </c>
-      <c r="X15" s="19">
+      <c r="X15" s="30">
         <v>7.9</v>
       </c>
-      <c r="Y15" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="28">
+      <c r="Y15" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2677,22 +2722,22 @@
       <c r="F16" s="8">
         <v>0</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="9">
         <v>1</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="12">
         <v>0.12</v>
       </c>
       <c r="I16" s="4">
         <v>2</v>
       </c>
-      <c r="J16" s="29">
-        <v>0</v>
-      </c>
-      <c r="K16" s="29">
-        <v>0</v>
-      </c>
-      <c r="L16" s="36">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="16">
         <v>0</v>
       </c>
       <c r="M16" s="6">
@@ -2701,13 +2746,13 @@
       <c r="N16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O16" s="29">
+      <c r="O16" s="9">
         <v>0</v>
       </c>
       <c r="P16" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="14">
         <v>0.26</v>
       </c>
       <c r="R16" s="2" t="s">
@@ -2719,46 +2764,46 @@
       <c r="T16" s="2">
         <v>0</v>
       </c>
-      <c r="U16" s="38">
-        <v>0</v>
-      </c>
-      <c r="V16" s="19">
+      <c r="U16" s="18">
+        <v>0</v>
+      </c>
+      <c r="V16" s="30">
         <v>21</v>
       </c>
-      <c r="W16" s="19">
+      <c r="W16" s="30">
         <v>1.8</v>
       </c>
-      <c r="X16" s="19">
+      <c r="X16" s="30">
         <v>12.3</v>
       </c>
-      <c r="Y16" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="28">
+      <c r="Y16" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2781,22 +2826,22 @@
       <c r="F17" s="8">
         <v>0</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="9">
         <v>1</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="12">
         <v>0.06</v>
       </c>
       <c r="I17" s="4">
         <v>1.6</v>
       </c>
-      <c r="J17" s="29">
-        <v>0</v>
-      </c>
-      <c r="K17" s="29">
-        <v>0</v>
-      </c>
-      <c r="L17" s="36">
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="16">
         <v>0</v>
       </c>
       <c r="M17" s="6">
@@ -2805,13 +2850,13 @@
       <c r="N17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="9">
         <v>0</v>
       </c>
       <c r="P17" s="8">
         <v>2</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="14">
         <v>0.18</v>
       </c>
       <c r="R17" s="2" t="s">
@@ -2823,46 +2868,46 @@
       <c r="T17" s="2">
         <v>0</v>
       </c>
-      <c r="U17" s="38">
-        <v>0</v>
-      </c>
-      <c r="V17" s="19">
+      <c r="U17" s="18">
+        <v>0</v>
+      </c>
+      <c r="V17" s="30">
         <v>10</v>
       </c>
-      <c r="W17" s="19">
+      <c r="W17" s="30">
         <v>10</v>
       </c>
-      <c r="X17" s="19">
+      <c r="X17" s="30">
         <v>10</v>
       </c>
-      <c r="Y17" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="28">
+      <c r="Y17" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2885,22 +2930,22 @@
       <c r="F18" s="8">
         <v>0</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="9">
         <v>1</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="12">
         <v>0.18</v>
       </c>
       <c r="I18" s="4">
         <v>1.8</v>
       </c>
-      <c r="J18" s="29">
-        <v>0</v>
-      </c>
-      <c r="K18" s="29">
-        <v>0</v>
-      </c>
-      <c r="L18" s="36">
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
         <v>0</v>
       </c>
       <c r="M18" s="6">
@@ -2909,13 +2954,13 @@
       <c r="N18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="29">
+      <c r="O18" s="9">
         <v>0</v>
       </c>
       <c r="P18" s="8">
         <v>2</v>
       </c>
-      <c r="Q18" s="34">
+      <c r="Q18" s="14">
         <v>0.3</v>
       </c>
       <c r="R18" s="2" t="s">
@@ -2927,46 +2972,46 @@
       <c r="T18" s="2">
         <v>0</v>
       </c>
-      <c r="U18" s="38">
-        <v>0</v>
-      </c>
-      <c r="V18" s="19">
+      <c r="U18" s="18">
+        <v>0</v>
+      </c>
+      <c r="V18" s="30">
         <v>14.4</v>
       </c>
-      <c r="W18" s="19">
+      <c r="W18" s="30">
         <v>10.8</v>
       </c>
-      <c r="X18" s="19">
+      <c r="X18" s="30">
         <v>10.8</v>
       </c>
-      <c r="Y18" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="28">
+      <c r="Y18" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2989,22 +3034,22 @@
       <c r="F19" s="8">
         <v>0</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="9">
         <v>1</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="12">
         <v>0.23</v>
       </c>
       <c r="I19" s="4">
         <v>2.5</v>
       </c>
-      <c r="J19" s="29">
-        <v>0</v>
-      </c>
-      <c r="K19" s="29">
-        <v>0</v>
-      </c>
-      <c r="L19" s="36">
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="16">
         <v>0</v>
       </c>
       <c r="M19" s="6">
@@ -3013,13 +3058,13 @@
       <c r="N19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O19" s="29">
+      <c r="O19" s="9">
         <v>0</v>
       </c>
       <c r="P19" s="8">
         <v>3</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19" s="14">
         <v>0.21</v>
       </c>
       <c r="R19" s="2" t="s">
@@ -3031,46 +3076,46 @@
       <c r="T19" s="2">
         <v>0</v>
       </c>
-      <c r="U19" s="38">
-        <v>0</v>
-      </c>
-      <c r="V19" s="19">
+      <c r="U19" s="18">
+        <v>0</v>
+      </c>
+      <c r="V19" s="30">
         <v>6</v>
       </c>
-      <c r="W19" s="19">
+      <c r="W19" s="30">
         <v>30</v>
       </c>
-      <c r="X19" s="19">
+      <c r="X19" s="30">
         <v>24</v>
       </c>
-      <c r="Y19" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="28">
+      <c r="Y19" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="40">
         <v>0</v>
       </c>
     </row>
@@ -3093,22 +3138,22 @@
       <c r="F20" s="8">
         <v>0</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="9">
         <v>1</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="12">
         <v>0</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
       </c>
-      <c r="J20" s="29">
-        <v>0</v>
-      </c>
-      <c r="K20" s="29">
-        <v>0</v>
-      </c>
-      <c r="L20" s="36">
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
         <v>0</v>
       </c>
       <c r="M20" s="6">
@@ -3117,13 +3162,13 @@
       <c r="N20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="29">
+      <c r="O20" s="9">
         <v>0</v>
       </c>
       <c r="P20" s="8">
         <v>3</v>
       </c>
-      <c r="Q20" s="34">
+      <c r="Q20" s="14">
         <v>0</v>
       </c>
       <c r="R20" s="2" t="s">
@@ -3135,46 +3180,46 @@
       <c r="T20" s="2">
         <v>0</v>
       </c>
-      <c r="U20" s="38">
-        <v>0</v>
-      </c>
-      <c r="V20" s="19">
-        <v>0</v>
-      </c>
-      <c r="W20" s="19">
-        <v>0</v>
-      </c>
-      <c r="X20" s="19">
+      <c r="U20" s="18">
+        <v>0</v>
+      </c>
+      <c r="V20" s="30">
+        <v>0</v>
+      </c>
+      <c r="W20" s="30">
+        <v>0</v>
+      </c>
+      <c r="X20" s="30">
         <v>3</v>
       </c>
-      <c r="Y20" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="28">
+      <c r="Y20" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="40">
         <v>0</v>
       </c>
     </row>
@@ -3197,22 +3242,22 @@
       <c r="F21" s="8">
         <v>0.5</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="9">
         <v>1</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="12">
         <v>0.36</v>
       </c>
       <c r="I21" s="4">
         <v>2</v>
       </c>
-      <c r="J21" s="29">
-        <v>0</v>
-      </c>
-      <c r="K21" s="29">
-        <v>0</v>
-      </c>
-      <c r="L21" s="36">
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="16">
         <v>0</v>
       </c>
       <c r="M21" s="6">
@@ -3221,13 +3266,13 @@
       <c r="N21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O21" s="29">
+      <c r="O21" s="9">
         <v>100</v>
       </c>
       <c r="P21" s="8">
         <v>0.6</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21" s="14">
         <v>0.18</v>
       </c>
       <c r="R21" s="2" t="s">
@@ -3239,46 +3284,46 @@
       <c r="T21" s="2">
         <v>1</v>
       </c>
-      <c r="U21" s="38">
+      <c r="U21" s="18">
         <v>2</v>
       </c>
-      <c r="V21" s="19">
+      <c r="V21" s="30">
         <v>11</v>
       </c>
-      <c r="W21" s="19">
+      <c r="W21" s="30">
         <v>198</v>
       </c>
-      <c r="X21" s="19">
+      <c r="X21" s="30">
         <v>11</v>
       </c>
-      <c r="Y21" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="28">
+      <c r="Y21" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="40">
         <v>0</v>
       </c>
     </row>
@@ -3301,22 +3346,22 @@
       <c r="F22" s="8">
         <v>0.5</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="9">
         <v>3</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="12">
         <v>0.35</v>
       </c>
       <c r="I22" s="4">
         <v>2</v>
       </c>
-      <c r="J22" s="29">
-        <v>0</v>
-      </c>
-      <c r="K22" s="29">
-        <v>0</v>
-      </c>
-      <c r="L22" s="36">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
         <v>0</v>
       </c>
       <c r="M22" s="6">
@@ -3325,13 +3370,13 @@
       <c r="N22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O22" s="29">
+      <c r="O22" s="9">
         <v>100</v>
       </c>
       <c r="P22" s="8">
         <v>0.7</v>
       </c>
-      <c r="Q22" s="34">
+      <c r="Q22" s="14">
         <v>0.3</v>
       </c>
       <c r="R22" s="2" t="s">
@@ -3343,46 +3388,46 @@
       <c r="T22" s="2">
         <v>1</v>
       </c>
-      <c r="U22" s="38">
+      <c r="U22" s="18">
         <v>2</v>
       </c>
-      <c r="V22" s="19">
+      <c r="V22" s="30">
         <v>6</v>
       </c>
-      <c r="W22" s="19">
+      <c r="W22" s="30">
         <v>108</v>
       </c>
-      <c r="X22" s="19">
+      <c r="X22" s="30">
         <v>6</v>
       </c>
-      <c r="Y22" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="28">
+      <c r="Y22" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="40">
         <v>0</v>
       </c>
     </row>
@@ -3405,22 +3450,22 @@
       <c r="F23" s="8">
         <v>0.5</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="9">
         <v>3</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="12">
         <v>0.35</v>
       </c>
       <c r="I23" s="4">
         <v>2</v>
       </c>
-      <c r="J23" s="29">
-        <v>0</v>
-      </c>
-      <c r="K23" s="29">
-        <v>0</v>
-      </c>
-      <c r="L23" s="36">
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="16">
         <v>0</v>
       </c>
       <c r="M23" s="6">
@@ -3429,13 +3474,13 @@
       <c r="N23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="29">
+      <c r="O23" s="9">
         <v>100</v>
       </c>
       <c r="P23" s="8">
         <v>0.7</v>
       </c>
-      <c r="Q23" s="34">
+      <c r="Q23" s="14">
         <v>0.3</v>
       </c>
       <c r="R23" s="2" t="s">
@@ -3447,46 +3492,46 @@
       <c r="T23" s="2">
         <v>1</v>
       </c>
-      <c r="U23" s="38">
+      <c r="U23" s="18">
         <v>2</v>
       </c>
-      <c r="V23" s="19">
+      <c r="V23" s="30">
         <v>6</v>
       </c>
-      <c r="W23" s="19">
+      <c r="W23" s="30">
         <v>108</v>
       </c>
-      <c r="X23" s="19">
+      <c r="X23" s="30">
         <v>6</v>
       </c>
-      <c r="Y23" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="28">
+      <c r="Y23" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="40">
         <v>0</v>
       </c>
     </row>
@@ -3509,22 +3554,22 @@
       <c r="F24" s="8">
         <v>0</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="9">
         <v>2</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="12">
         <v>0.16</v>
       </c>
       <c r="I24" s="4">
         <v>2.4</v>
       </c>
-      <c r="J24" s="29">
-        <v>0</v>
-      </c>
-      <c r="K24" s="29">
-        <v>0</v>
-      </c>
-      <c r="L24" s="36">
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="16">
         <v>0</v>
       </c>
       <c r="M24" s="6">
@@ -3533,13 +3578,13 @@
       <c r="N24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O24" s="29">
+      <c r="O24" s="9">
         <v>60</v>
       </c>
       <c r="P24" s="8">
         <v>2</v>
       </c>
-      <c r="Q24" s="34">
+      <c r="Q24" s="14">
         <v>0.3</v>
       </c>
       <c r="R24" s="2" t="s">
@@ -3551,46 +3596,46 @@
       <c r="T24" s="2">
         <v>0</v>
       </c>
-      <c r="U24" s="38">
-        <v>0</v>
-      </c>
-      <c r="V24" s="19">
+      <c r="U24" s="18">
+        <v>0</v>
+      </c>
+      <c r="V24" s="30">
         <v>9.6</v>
       </c>
-      <c r="W24" s="19">
+      <c r="W24" s="30">
         <v>1.2</v>
       </c>
-      <c r="X24" s="19">
+      <c r="X24" s="30">
         <v>1.2</v>
       </c>
-      <c r="Y24" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="28">
+      <c r="Y24" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="40">
         <v>0</v>
       </c>
     </row>
@@ -3613,22 +3658,22 @@
       <c r="F25" s="8">
         <v>0</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="9">
         <v>6</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="12">
         <v>0.3</v>
       </c>
       <c r="I25" s="4">
         <v>2.8</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="9">
         <v>1800</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="9">
         <v>3600</v>
       </c>
-      <c r="L25" s="36">
+      <c r="L25" s="16">
         <v>0.33329999999999999</v>
       </c>
       <c r="M25" s="6">
@@ -3637,13 +3682,13 @@
       <c r="N25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O25" s="29">
+      <c r="O25" s="9">
         <v>0</v>
       </c>
       <c r="P25" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q25" s="34">
+      <c r="Q25" s="14">
         <v>0.12</v>
       </c>
       <c r="R25" s="2" t="s">
@@ -3655,46 +3700,46 @@
       <c r="T25" s="2">
         <v>0</v>
       </c>
-      <c r="U25" s="38">
-        <v>0</v>
-      </c>
-      <c r="V25" s="19">
+      <c r="U25" s="18">
+        <v>0</v>
+      </c>
+      <c r="V25" s="30">
         <v>27</v>
       </c>
-      <c r="W25" s="19">
+      <c r="W25" s="30">
         <v>25.2</v>
       </c>
-      <c r="X25" s="19">
+      <c r="X25" s="30">
         <v>37.799999999999997</v>
       </c>
-      <c r="Y25" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="28">
+      <c r="Y25" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="40">
         <v>0</v>
       </c>
     </row>
@@ -3717,22 +3762,22 @@
       <c r="F26" s="8">
         <v>0</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="9">
         <v>1</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="12">
         <v>0.04</v>
       </c>
       <c r="I26" s="4">
         <v>1.6</v>
       </c>
-      <c r="J26" s="29">
-        <v>0</v>
-      </c>
-      <c r="K26" s="29">
-        <v>0</v>
-      </c>
-      <c r="L26" s="36">
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
         <v>0</v>
       </c>
       <c r="M26" s="6">
@@ -3741,13 +3786,13 @@
       <c r="N26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O26" s="29">
+      <c r="O26" s="9">
         <v>0</v>
       </c>
       <c r="P26" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q26" s="34">
+      <c r="Q26" s="14">
         <v>0.28000000000000003</v>
       </c>
       <c r="R26" s="2" t="s">
@@ -3759,46 +3804,46 @@
       <c r="T26" s="2">
         <v>0</v>
       </c>
-      <c r="U26" s="38">
-        <v>0</v>
-      </c>
-      <c r="V26" s="19">
-        <v>0</v>
-      </c>
-      <c r="W26" s="19">
+      <c r="U26" s="18">
+        <v>0</v>
+      </c>
+      <c r="V26" s="30">
+        <v>0</v>
+      </c>
+      <c r="W26" s="30">
         <v>100</v>
       </c>
-      <c r="X26" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="4">
+      <c r="X26" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="35">
         <v>404</v>
       </c>
-      <c r="AD26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="28">
+      <c r="AD26" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="40">
         <v>0</v>
       </c>
     </row>
@@ -3821,22 +3866,22 @@
       <c r="F27" s="8">
         <v>1</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="9">
         <v>1</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="12">
         <v>0.2</v>
       </c>
       <c r="I27" s="4">
         <v>2</v>
       </c>
-      <c r="J27" s="29">
-        <v>0</v>
-      </c>
-      <c r="K27" s="29">
-        <v>0</v>
-      </c>
-      <c r="L27" s="36">
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="16">
         <v>0</v>
       </c>
       <c r="M27" s="6">
@@ -3845,13 +3890,13 @@
       <c r="N27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O27" s="29">
+      <c r="O27" s="9">
         <v>300</v>
       </c>
       <c r="P27" s="8">
         <v>0.6</v>
       </c>
-      <c r="Q27" s="34">
+      <c r="Q27" s="14">
         <v>0.5</v>
       </c>
       <c r="R27" s="2" t="s">
@@ -3863,46 +3908,46 @@
       <c r="T27" s="2">
         <v>1</v>
       </c>
-      <c r="U27" s="38">
+      <c r="U27" s="18">
         <v>1</v>
       </c>
-      <c r="V27" s="19">
+      <c r="V27" s="30">
         <v>138</v>
       </c>
-      <c r="W27" s="19">
+      <c r="W27" s="30">
         <v>138</v>
       </c>
-      <c r="X27" s="19">
+      <c r="X27" s="30">
         <v>184</v>
       </c>
-      <c r="Y27" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="28">
+      <c r="Y27" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="40">
         <v>0</v>
       </c>
     </row>
@@ -3925,22 +3970,22 @@
       <c r="F28" s="8">
         <v>0</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="9">
         <v>1</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="12">
         <v>0.08</v>
       </c>
       <c r="I28" s="4">
         <v>1.6</v>
       </c>
-      <c r="J28" s="29">
-        <v>0</v>
-      </c>
-      <c r="K28" s="29">
-        <v>0</v>
-      </c>
-      <c r="L28" s="36">
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="16">
         <v>0</v>
       </c>
       <c r="M28" s="6">
@@ -3949,13 +3994,13 @@
       <c r="N28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O28" s="29">
+      <c r="O28" s="9">
         <v>0</v>
       </c>
       <c r="P28" s="8">
         <v>1.8</v>
       </c>
-      <c r="Q28" s="34">
+      <c r="Q28" s="14">
         <v>0.22</v>
       </c>
       <c r="R28" s="2" t="s">
@@ -3967,46 +4012,46 @@
       <c r="T28" s="2">
         <v>0</v>
       </c>
-      <c r="U28" s="38">
-        <v>0</v>
-      </c>
-      <c r="V28" s="19">
+      <c r="U28" s="18">
+        <v>0</v>
+      </c>
+      <c r="V28" s="30">
         <v>1.5</v>
       </c>
-      <c r="W28" s="19">
+      <c r="W28" s="30">
         <v>6</v>
       </c>
-      <c r="X28" s="19">
+      <c r="X28" s="30">
         <v>22.5</v>
       </c>
-      <c r="Y28" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="28">
+      <c r="Y28" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4029,22 +4074,22 @@
       <c r="F29" s="8">
         <v>0</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="9">
         <v>1</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="12">
         <v>0.08</v>
       </c>
       <c r="I29" s="4">
         <v>2</v>
       </c>
-      <c r="J29" s="29">
-        <v>0</v>
-      </c>
-      <c r="K29" s="29">
-        <v>0</v>
-      </c>
-      <c r="L29" s="36">
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="16">
         <v>0</v>
       </c>
       <c r="M29" s="6">
@@ -4053,13 +4098,13 @@
       <c r="N29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O29" s="29">
+      <c r="O29" s="9">
         <v>0</v>
       </c>
       <c r="P29" s="8">
         <v>1.8</v>
       </c>
-      <c r="Q29" s="34">
+      <c r="Q29" s="14">
         <v>0.3</v>
       </c>
       <c r="R29" s="2" t="s">
@@ -4071,46 +4116,46 @@
       <c r="T29" s="2">
         <v>0</v>
       </c>
-      <c r="U29" s="38">
-        <v>0</v>
-      </c>
-      <c r="V29" s="19">
+      <c r="U29" s="18">
+        <v>0</v>
+      </c>
+      <c r="V29" s="30">
         <v>1.6</v>
       </c>
-      <c r="W29" s="19">
+      <c r="W29" s="30">
         <v>6.4</v>
       </c>
-      <c r="X29" s="19">
+      <c r="X29" s="30">
         <v>24</v>
       </c>
-      <c r="Y29" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="28">
+      <c r="Y29" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4133,22 +4178,22 @@
       <c r="F30" s="8">
         <v>0.5</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G30" s="9">
         <v>10</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="12">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I30" s="4">
         <v>2</v>
       </c>
-      <c r="J30" s="29">
-        <v>0</v>
-      </c>
-      <c r="K30" s="29">
-        <v>0</v>
-      </c>
-      <c r="L30" s="36">
+      <c r="J30" s="9">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+      <c r="L30" s="16">
         <v>0</v>
       </c>
       <c r="M30" s="6">
@@ -4157,13 +4202,13 @@
       <c r="N30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O30" s="29">
+      <c r="O30" s="9">
         <v>150</v>
       </c>
       <c r="P30" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q30" s="34">
+      <c r="Q30" s="14">
         <v>0.23</v>
       </c>
       <c r="R30" s="2" t="s">
@@ -4175,46 +4220,46 @@
       <c r="T30" s="2">
         <v>1</v>
       </c>
-      <c r="U30" s="38">
+      <c r="U30" s="18">
         <v>1.75</v>
       </c>
-      <c r="V30" s="19">
+      <c r="V30" s="30">
         <v>56</v>
       </c>
-      <c r="W30" s="19">
+      <c r="W30" s="30">
         <v>7</v>
       </c>
-      <c r="X30" s="19">
+      <c r="X30" s="30">
         <v>7</v>
       </c>
-      <c r="Y30" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="28">
+      <c r="Y30" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4237,22 +4282,22 @@
       <c r="F31" s="8">
         <v>0.5</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="9">
         <v>1</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="12">
         <v>0.5</v>
       </c>
       <c r="I31" s="4">
         <v>2</v>
       </c>
-      <c r="J31" s="29">
-        <v>0</v>
-      </c>
-      <c r="K31" s="29">
-        <v>0</v>
-      </c>
-      <c r="L31" s="36">
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="16">
         <v>0</v>
       </c>
       <c r="M31" s="6">
@@ -4261,13 +4306,13 @@
       <c r="N31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O31" s="29">
+      <c r="O31" s="9">
         <v>250</v>
       </c>
       <c r="P31" s="8">
         <v>0.7</v>
       </c>
-      <c r="Q31" s="34">
+      <c r="Q31" s="14">
         <v>0.2</v>
       </c>
       <c r="R31" s="2" t="s">
@@ -4279,46 +4324,46 @@
       <c r="T31" s="2">
         <v>1</v>
       </c>
-      <c r="U31" s="38">
+      <c r="U31" s="18">
         <v>1.53</v>
       </c>
-      <c r="V31" s="19">
+      <c r="V31" s="30">
         <v>180</v>
       </c>
-      <c r="W31" s="19">
+      <c r="W31" s="30">
         <v>10</v>
       </c>
-      <c r="X31" s="19">
+      <c r="X31" s="30">
         <v>10</v>
       </c>
-      <c r="Y31" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="28">
+      <c r="Y31" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4341,22 +4386,22 @@
       <c r="F32" s="8">
         <v>0</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="9">
         <v>3</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="12">
         <v>0.08</v>
       </c>
       <c r="I32" s="4">
         <v>1.4</v>
       </c>
-      <c r="J32" s="29">
+      <c r="J32" s="9">
         <v>3000</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K32" s="9">
         <v>6000</v>
       </c>
-      <c r="L32" s="36">
+      <c r="L32" s="16">
         <v>0.49199999999999999</v>
       </c>
       <c r="M32" s="6">
@@ -4365,13 +4410,13 @@
       <c r="N32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O32" s="29">
+      <c r="O32" s="9">
         <v>50</v>
       </c>
       <c r="P32" s="8">
         <v>1.6</v>
       </c>
-      <c r="Q32" s="34">
+      <c r="Q32" s="14">
         <v>0.36</v>
       </c>
       <c r="R32" s="2" t="s">
@@ -4383,46 +4428,46 @@
       <c r="T32" s="2">
         <v>0</v>
       </c>
-      <c r="U32" s="38">
-        <v>0</v>
-      </c>
-      <c r="V32" s="19">
+      <c r="U32" s="18">
+        <v>0</v>
+      </c>
+      <c r="V32" s="30">
         <v>260</v>
       </c>
-      <c r="W32" s="19">
+      <c r="W32" s="30">
         <v>20</v>
       </c>
-      <c r="X32" s="19">
+      <c r="X32" s="30">
         <v>120</v>
       </c>
-      <c r="Y32" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="24">
+      <c r="Y32" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="36">
         <v>140</v>
       </c>
-      <c r="AE32" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="28">
+      <c r="AE32" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4445,22 +4490,22 @@
       <c r="F33" s="8">
         <v>0.5</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="9">
         <v>1</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="12">
         <v>0.32</v>
       </c>
       <c r="I33" s="4">
         <v>2.8</v>
       </c>
-      <c r="J33" s="29">
-        <v>0</v>
-      </c>
-      <c r="K33" s="29">
-        <v>0</v>
-      </c>
-      <c r="L33" s="36">
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="16">
         <v>0</v>
       </c>
       <c r="M33" s="6">
@@ -4469,13 +4514,13 @@
       <c r="N33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O33" s="29">
+      <c r="O33" s="9">
         <v>150</v>
       </c>
       <c r="P33" s="8">
         <v>1.8</v>
       </c>
-      <c r="Q33" s="34">
+      <c r="Q33" s="14">
         <v>0.1</v>
       </c>
       <c r="R33" s="2" t="s">
@@ -4487,46 +4532,46 @@
       <c r="T33" s="2">
         <v>1</v>
       </c>
-      <c r="U33" s="38">
+      <c r="U33" s="18">
         <v>1</v>
       </c>
-      <c r="V33" s="19">
+      <c r="V33" s="30">
         <v>70</v>
       </c>
-      <c r="W33" s="19">
+      <c r="W33" s="30">
         <v>35</v>
       </c>
-      <c r="X33" s="19">
+      <c r="X33" s="30">
         <v>245</v>
       </c>
-      <c r="Y33" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="28">
+      <c r="Y33" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4549,22 +4594,22 @@
       <c r="F34" s="8">
         <v>0.5</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="9">
         <v>1</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="12">
         <v>0.04</v>
       </c>
       <c r="I34" s="4">
         <v>2</v>
       </c>
-      <c r="J34" s="29">
-        <v>0</v>
-      </c>
-      <c r="K34" s="29">
-        <v>0</v>
-      </c>
-      <c r="L34" s="36">
+      <c r="J34" s="9">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
+      <c r="L34" s="16">
         <v>0</v>
       </c>
       <c r="M34" s="6">
@@ -4573,13 +4618,13 @@
       <c r="N34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O34" s="29">
+      <c r="O34" s="9">
         <v>0</v>
       </c>
       <c r="P34" s="8">
         <v>2</v>
       </c>
-      <c r="Q34" s="34">
+      <c r="Q34" s="14">
         <v>0.33</v>
       </c>
       <c r="R34" s="2" t="s">
@@ -4591,46 +4636,46 @@
       <c r="T34" s="2">
         <v>1</v>
       </c>
-      <c r="U34" s="38">
+      <c r="U34" s="18">
         <v>1</v>
       </c>
-      <c r="V34" s="19">
+      <c r="V34" s="30">
         <v>122.5</v>
       </c>
-      <c r="W34" s="19">
+      <c r="W34" s="30">
         <v>455</v>
       </c>
-      <c r="X34" s="19">
+      <c r="X34" s="30">
         <v>72.5</v>
       </c>
-      <c r="Y34" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="28">
+      <c r="Y34" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4653,22 +4698,22 @@
       <c r="F35" s="8">
         <v>0</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="9">
         <v>1</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="12">
         <v>0.1</v>
       </c>
       <c r="I35" s="4">
         <v>2</v>
       </c>
-      <c r="J35" s="29">
-        <v>0</v>
-      </c>
-      <c r="K35" s="29">
-        <v>0</v>
-      </c>
-      <c r="L35" s="36">
+      <c r="J35" s="9">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="16">
         <v>0</v>
       </c>
       <c r="M35" s="6">
@@ -4677,13 +4722,13 @@
       <c r="N35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O35" s="29">
+      <c r="O35" s="9">
         <v>50</v>
       </c>
       <c r="P35" s="8">
         <v>1</v>
       </c>
-      <c r="Q35" s="34">
+      <c r="Q35" s="14">
         <v>0.24</v>
       </c>
       <c r="R35" s="2" t="s">
@@ -4695,46 +4740,46 @@
       <c r="T35" s="2">
         <v>0</v>
       </c>
-      <c r="U35" s="38">
-        <v>0</v>
-      </c>
-      <c r="V35" s="19">
+      <c r="U35" s="18">
+        <v>0</v>
+      </c>
+      <c r="V35" s="30">
         <v>17.2</v>
       </c>
-      <c r="W35" s="19">
-        <v>0</v>
-      </c>
-      <c r="X35" s="19">
+      <c r="W35" s="30">
+        <v>0</v>
+      </c>
+      <c r="X35" s="30">
         <v>4.8</v>
       </c>
-      <c r="Y35" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="28">
+      <c r="Y35" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4757,22 +4802,22 @@
       <c r="F36" s="8">
         <v>0</v>
       </c>
-      <c r="G36" s="29">
+      <c r="G36" s="9">
         <v>1</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="12">
         <v>0.08</v>
       </c>
       <c r="I36" s="4">
         <v>2</v>
       </c>
-      <c r="J36" s="29">
-        <v>0</v>
-      </c>
-      <c r="K36" s="29">
-        <v>0</v>
-      </c>
-      <c r="L36" s="36">
+      <c r="J36" s="9">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0</v>
+      </c>
+      <c r="L36" s="16">
         <v>0</v>
       </c>
       <c r="M36" s="6">
@@ -4781,13 +4826,13 @@
       <c r="N36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O36" s="29">
+      <c r="O36" s="9">
         <v>0</v>
       </c>
       <c r="P36" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q36" s="34">
+      <c r="Q36" s="14">
         <v>0.34</v>
       </c>
       <c r="R36" s="2" t="s">
@@ -4799,46 +4844,46 @@
       <c r="T36" s="2">
         <v>0</v>
       </c>
-      <c r="U36" s="38">
-        <v>0</v>
-      </c>
-      <c r="V36" s="19">
-        <v>0</v>
-      </c>
-      <c r="W36" s="19">
-        <v>0</v>
-      </c>
-      <c r="X36" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="21">
+      <c r="U36" s="18">
+        <v>0</v>
+      </c>
+      <c r="V36" s="30">
+        <v>0</v>
+      </c>
+      <c r="W36" s="30">
+        <v>0</v>
+      </c>
+      <c r="X36" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="32">
         <v>26</v>
       </c>
-      <c r="AA36" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="28">
+      <c r="AA36" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4861,22 +4906,22 @@
       <c r="F37" s="8">
         <v>0</v>
       </c>
-      <c r="G37" s="29">
+      <c r="G37" s="9">
         <v>1</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="12">
         <v>0.17</v>
       </c>
       <c r="I37" s="4">
         <v>1.5</v>
       </c>
-      <c r="J37" s="29">
-        <v>0</v>
-      </c>
-      <c r="K37" s="29">
-        <v>0</v>
-      </c>
-      <c r="L37" s="36">
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="16">
         <v>0</v>
       </c>
       <c r="M37" s="6">
@@ -4885,13 +4930,13 @@
       <c r="N37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O37" s="29">
+      <c r="O37" s="9">
         <v>0</v>
       </c>
       <c r="P37" s="8">
         <v>4.2</v>
       </c>
-      <c r="Q37" s="34">
+      <c r="Q37" s="14">
         <v>0.09</v>
       </c>
       <c r="R37" s="2" t="s">
@@ -4903,103 +4948,103 @@
       <c r="T37" s="2">
         <v>0</v>
       </c>
-      <c r="U37" s="38">
-        <v>0</v>
-      </c>
-      <c r="V37" s="19">
+      <c r="U37" s="18">
+        <v>0</v>
+      </c>
+      <c r="V37" s="30">
         <v>2.5</v>
       </c>
-      <c r="W37" s="19">
+      <c r="W37" s="30">
         <v>18.8</v>
       </c>
-      <c r="X37" s="19">
+      <c r="X37" s="30">
         <v>3.8</v>
       </c>
-      <c r="Y37" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="28">
+      <c r="Y37" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:34">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C38" s="2">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D38" s="2">
-        <v>210</v>
+        <v>750</v>
       </c>
       <c r="E38" s="8">
-        <v>100</v>
+        <v>28.6</v>
       </c>
       <c r="F38" s="8">
         <v>0</v>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="9">
         <v>1</v>
       </c>
-      <c r="H38" s="32">
-        <v>0.05</v>
+      <c r="H38" s="12">
+        <v>0.25</v>
       </c>
       <c r="I38" s="4">
         <v>2</v>
       </c>
-      <c r="J38" s="29">
-        <v>0</v>
-      </c>
-      <c r="K38" s="29">
-        <v>0</v>
-      </c>
-      <c r="L38" s="36">
+      <c r="J38" s="9">
+        <v>0</v>
+      </c>
+      <c r="K38" s="9">
+        <v>0</v>
+      </c>
+      <c r="L38" s="16">
         <v>0</v>
       </c>
       <c r="M38" s="6">
-        <v>6.67</v>
+        <v>20</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O38" s="29">
+      <c r="O38" s="9">
         <v>0</v>
       </c>
       <c r="P38" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="Q38" s="34">
-        <v>0.16</v>
+        <v>2.4</v>
+      </c>
+      <c r="Q38" s="14">
+        <v>0.2</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S38" s="2">
         <v>0</v>
@@ -5007,103 +5052,103 @@
       <c r="T38" s="2">
         <v>0</v>
       </c>
-      <c r="U38" s="38">
-        <v>0</v>
-      </c>
-      <c r="V38" s="19">
-        <v>0</v>
-      </c>
-      <c r="W38" s="19">
-        <v>0</v>
-      </c>
-      <c r="X38" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="23">
-        <v>35</v>
-      </c>
-      <c r="AC38" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="28">
+      <c r="U38" s="18">
+        <v>0</v>
+      </c>
+      <c r="V38" s="30">
+        <v>2.9</v>
+      </c>
+      <c r="W38" s="30">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X38" s="30">
+        <v>3.7</v>
+      </c>
+      <c r="Y38" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:34">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C39" s="2">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2">
-        <v>210</v>
+        <v>540</v>
       </c>
       <c r="E39" s="8">
-        <v>15.4</v>
+        <v>44.4</v>
       </c>
       <c r="F39" s="8">
         <v>0</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="9">
         <v>1</v>
       </c>
-      <c r="H39" s="32">
-        <v>0.05</v>
+      <c r="H39" s="12">
+        <v>0.15</v>
       </c>
       <c r="I39" s="4">
-        <v>2</v>
-      </c>
-      <c r="J39" s="29">
-        <v>0</v>
-      </c>
-      <c r="K39" s="29">
-        <v>0</v>
-      </c>
-      <c r="L39" s="36">
+        <v>2.5</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0</v>
+      </c>
+      <c r="K39" s="9">
+        <v>0</v>
+      </c>
+      <c r="L39" s="16">
         <v>0</v>
       </c>
       <c r="M39" s="6">
-        <v>12.5</v>
+        <v>1.67</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O39" s="29">
+      <c r="O39" s="9">
         <v>0</v>
       </c>
       <c r="P39" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q39" s="34">
-        <v>0.12</v>
+        <v>1.7</v>
+      </c>
+      <c r="Q39" s="14">
+        <v>0.35</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S39" s="2">
         <v>0</v>
@@ -5111,204 +5156,204 @@
       <c r="T39" s="2">
         <v>0</v>
       </c>
-      <c r="U39" s="38">
-        <v>0</v>
-      </c>
-      <c r="V39" s="19">
-        <v>3</v>
-      </c>
-      <c r="W39" s="19">
-        <v>3</v>
-      </c>
-      <c r="X39" s="19">
-        <v>14</v>
-      </c>
-      <c r="Y39" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="28">
+      <c r="U39" s="18">
+        <v>0</v>
+      </c>
+      <c r="V39" s="30">
+        <v>74.8</v>
+      </c>
+      <c r="W39" s="30">
+        <v>93.5</v>
+      </c>
+      <c r="X39" s="30">
+        <v>18.7</v>
+      </c>
+      <c r="Y39" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:34">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C40" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2">
-        <v>210</v>
+        <v>540</v>
       </c>
       <c r="E40" s="8">
-        <v>26.7</v>
+        <v>18.2</v>
       </c>
       <c r="F40" s="8">
         <v>0</v>
       </c>
-      <c r="G40" s="29">
+      <c r="G40" s="9">
         <v>1</v>
       </c>
-      <c r="H40" s="32">
-        <v>0.16</v>
+      <c r="H40" s="12">
+        <v>0.2</v>
       </c>
       <c r="I40" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="J40" s="29">
-        <v>0</v>
-      </c>
-      <c r="K40" s="29">
-        <v>0</v>
-      </c>
-      <c r="L40" s="36">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="L40" s="16">
         <v>0</v>
       </c>
       <c r="M40" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O40" s="29">
+      <c r="O40" s="9">
         <v>0</v>
       </c>
       <c r="P40" s="8">
-        <v>2.6</v>
-      </c>
-      <c r="Q40" s="34">
-        <v>2.1999999999999999E-2</v>
+        <v>2</v>
+      </c>
+      <c r="Q40" s="14">
+        <v>0.17</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S40" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T40" s="2">
         <v>0</v>
       </c>
-      <c r="U40" s="38">
-        <v>0</v>
-      </c>
-      <c r="V40" s="19">
-        <v>0</v>
-      </c>
-      <c r="W40" s="19">
-        <v>4</v>
-      </c>
-      <c r="X40" s="19">
-        <v>36</v>
-      </c>
-      <c r="Y40" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="28">
+      <c r="U40" s="18">
+        <v>0</v>
+      </c>
+      <c r="V40" s="30">
+        <v>7.5</v>
+      </c>
+      <c r="W40" s="30">
+        <v>5</v>
+      </c>
+      <c r="X40" s="30">
+        <v>37.5</v>
+      </c>
+      <c r="Y40" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:34">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C41" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2">
-        <v>210</v>
+        <v>540</v>
       </c>
       <c r="E41" s="8">
-        <v>26.7</v>
+        <v>100</v>
       </c>
       <c r="F41" s="8">
         <v>0</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="9">
         <v>1</v>
       </c>
-      <c r="H41" s="32">
-        <v>0.36</v>
+      <c r="H41" s="12">
+        <v>0.25</v>
       </c>
       <c r="I41" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="J41" s="29">
-        <v>0</v>
-      </c>
-      <c r="K41" s="29">
-        <v>0</v>
-      </c>
-      <c r="L41" s="36">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J41" s="9">
+        <v>0</v>
+      </c>
+      <c r="K41" s="9">
+        <v>0</v>
+      </c>
+      <c r="L41" s="16">
         <v>0</v>
       </c>
       <c r="M41" s="6">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O41" s="29">
+      <c r="O41" s="9">
         <v>0</v>
       </c>
       <c r="P41" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="Q41" s="34">
-        <v>0.14000000000000001</v>
+        <v>2</v>
+      </c>
+      <c r="Q41" s="14">
+        <v>0.13</v>
       </c>
       <c r="R41" s="2" t="s">
         <v>98</v>
@@ -5319,100 +5364,100 @@
       <c r="T41" s="2">
         <v>0</v>
       </c>
-      <c r="U41" s="38">
-        <v>0</v>
-      </c>
-      <c r="V41" s="19">
-        <v>1.3</v>
-      </c>
-      <c r="W41" s="19">
-        <v>3.2</v>
-      </c>
-      <c r="X41" s="19">
-        <v>27.5</v>
-      </c>
-      <c r="Y41" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="28">
+      <c r="U41" s="18">
+        <v>0</v>
+      </c>
+      <c r="V41" s="30">
+        <v>10</v>
+      </c>
+      <c r="W41" s="30">
+        <v>40</v>
+      </c>
+      <c r="X41" s="30">
+        <v>50</v>
+      </c>
+      <c r="Y41" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:34">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C42" s="2">
         <v>4</v>
       </c>
       <c r="D42" s="2">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="E42" s="8">
-        <v>3.7</v>
+        <v>9.1</v>
       </c>
       <c r="F42" s="8">
         <v>0</v>
       </c>
-      <c r="G42" s="29">
+      <c r="G42" s="9">
         <v>7</v>
       </c>
-      <c r="H42" s="32">
-        <v>0.06</v>
+      <c r="H42" s="12">
+        <v>0.1</v>
       </c>
       <c r="I42" s="4">
         <v>2</v>
       </c>
-      <c r="J42" s="29">
-        <v>700</v>
-      </c>
-      <c r="K42" s="29">
-        <v>1400</v>
-      </c>
-      <c r="L42" s="36">
-        <v>0.25</v>
+      <c r="J42" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K42" s="9">
+        <v>2000</v>
+      </c>
+      <c r="L42" s="16">
+        <v>0.2</v>
       </c>
       <c r="M42" s="6">
-        <v>8.33</v>
+        <v>2.17</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O42" s="29">
+      <c r="O42" s="9">
         <v>0</v>
       </c>
       <c r="P42" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q42" s="34">
-        <v>0.22</v>
+        <v>2</v>
+      </c>
+      <c r="Q42" s="14">
+        <v>0.25</v>
       </c>
       <c r="R42" s="2" t="s">
         <v>98</v>
@@ -5423,308 +5468,308 @@
       <c r="T42" s="2">
         <v>0</v>
       </c>
-      <c r="U42" s="38">
-        <v>0</v>
-      </c>
-      <c r="V42" s="19">
-        <v>4</v>
-      </c>
-      <c r="W42" s="19">
-        <v>32</v>
-      </c>
-      <c r="X42" s="19">
-        <v>4</v>
-      </c>
-      <c r="Y42" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="28">
+      <c r="U42" s="18">
+        <v>0</v>
+      </c>
+      <c r="V42" s="30">
+        <v>15</v>
+      </c>
+      <c r="W42" s="30">
+        <v>11.25</v>
+      </c>
+      <c r="X42" s="30">
+        <v>48.75</v>
+      </c>
+      <c r="Y42" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:34">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C43" s="2">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D43" s="2">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="E43" s="8">
-        <v>3.7</v>
+        <v>20</v>
       </c>
       <c r="F43" s="8">
         <v>0</v>
       </c>
-      <c r="G43" s="29">
-        <v>7</v>
-      </c>
-      <c r="H43" s="32">
-        <v>0.06</v>
+      <c r="G43" s="9">
+        <v>1</v>
+      </c>
+      <c r="H43" s="12">
+        <v>0.11</v>
       </c>
       <c r="I43" s="4">
         <v>2</v>
       </c>
-      <c r="J43" s="29">
-        <v>900</v>
-      </c>
-      <c r="K43" s="29">
-        <v>1800</v>
-      </c>
-      <c r="L43" s="36">
-        <v>0.26</v>
+      <c r="J43" s="9">
+        <v>0</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0</v>
+      </c>
+      <c r="L43" s="16">
+        <v>0</v>
       </c>
       <c r="M43" s="6">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O43" s="29">
+      <c r="O43" s="9">
         <v>0</v>
       </c>
       <c r="P43" s="8">
-        <v>2.25</v>
-      </c>
-      <c r="Q43" s="34">
-        <v>0.3</v>
+        <v>2</v>
+      </c>
+      <c r="Q43" s="14">
+        <v>0.25</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S43" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T43" s="2">
         <v>0</v>
       </c>
-      <c r="U43" s="38">
-        <v>0</v>
-      </c>
-      <c r="V43" s="19">
-        <v>5</v>
-      </c>
-      <c r="W43" s="19">
-        <v>40</v>
-      </c>
-      <c r="X43" s="19">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="28">
+      <c r="U43" s="18">
+        <v>0</v>
+      </c>
+      <c r="V43" s="30">
+        <v>0</v>
+      </c>
+      <c r="W43" s="30">
+        <v>0</v>
+      </c>
+      <c r="X43" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="39">
+        <v>47</v>
+      </c>
+      <c r="AH43" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:34">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C44" s="2">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D44" s="2">
-        <v>210</v>
+        <v>540</v>
       </c>
       <c r="E44" s="8">
-        <v>15.4</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F44" s="8">
         <v>0</v>
       </c>
-      <c r="G44" s="29">
+      <c r="G44" s="9">
         <v>1</v>
       </c>
-      <c r="H44" s="32">
-        <v>0.06</v>
+      <c r="H44" s="12">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I44" s="4">
-        <v>2</v>
-      </c>
-      <c r="J44" s="29">
-        <v>0</v>
-      </c>
-      <c r="K44" s="29">
-        <v>0</v>
-      </c>
-      <c r="L44" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="J44" s="9">
+        <v>0</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0</v>
+      </c>
+      <c r="L44" s="16">
         <v>0</v>
       </c>
       <c r="M44" s="6">
-        <v>16.670000000000002</v>
+        <v>6.25</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O44" s="29">
+      <c r="O44" s="9">
         <v>0</v>
       </c>
       <c r="P44" s="8">
-        <v>2.25</v>
-      </c>
-      <c r="Q44" s="34">
-        <v>0.28000000000000003</v>
+        <v>2</v>
+      </c>
+      <c r="Q44" s="14">
+        <v>0.15</v>
       </c>
       <c r="R44" s="2" t="s">
         <v>100</v>
       </c>
       <c r="S44" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T44" s="2">
         <v>0</v>
       </c>
-      <c r="U44" s="38">
-        <v>0</v>
-      </c>
-      <c r="V44" s="19">
-        <v>21</v>
-      </c>
-      <c r="W44" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="X44" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="Y44" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="28">
+      <c r="U44" s="18">
+        <v>0</v>
+      </c>
+      <c r="V44" s="30">
+        <v>15</v>
+      </c>
+      <c r="W44" s="30">
+        <v>7.5</v>
+      </c>
+      <c r="X44" s="30">
+        <v>7.5</v>
+      </c>
+      <c r="Y44" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:34">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C45" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D45" s="2">
-        <v>210</v>
+        <v>540</v>
       </c>
       <c r="E45" s="8">
-        <v>11.1</v>
+        <v>28.6</v>
       </c>
       <c r="F45" s="8">
         <v>0</v>
       </c>
-      <c r="G45" s="29">
+      <c r="G45" s="9">
         <v>1</v>
       </c>
-      <c r="H45" s="32">
-        <v>0.1</v>
+      <c r="H45" s="12">
+        <v>0.15</v>
       </c>
       <c r="I45" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="J45" s="29">
-        <v>0</v>
-      </c>
-      <c r="K45" s="29">
-        <v>0</v>
-      </c>
-      <c r="L45" s="36">
+        <v>2</v>
+      </c>
+      <c r="J45" s="9">
+        <v>0</v>
+      </c>
+      <c r="K45" s="9">
+        <v>0</v>
+      </c>
+      <c r="L45" s="16">
         <v>0</v>
       </c>
       <c r="M45" s="6">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O45" s="29">
+      <c r="O45" s="9">
         <v>0</v>
       </c>
       <c r="P45" s="8">
-        <v>2.4</v>
-      </c>
-      <c r="Q45" s="34">
-        <v>0.06</v>
+        <v>2</v>
+      </c>
+      <c r="Q45" s="14">
+        <v>0.1</v>
       </c>
       <c r="R45" s="2" t="s">
         <v>98</v>
@@ -5735,103 +5780,103 @@
       <c r="T45" s="2">
         <v>0</v>
       </c>
-      <c r="U45" s="38">
-        <v>0</v>
-      </c>
-      <c r="V45" s="19">
-        <v>18</v>
-      </c>
-      <c r="W45" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="X45" s="19">
-        <v>7.5</v>
-      </c>
-      <c r="Y45" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="28">
+      <c r="U45" s="18">
+        <v>0</v>
+      </c>
+      <c r="V45" s="30">
+        <v>36</v>
+      </c>
+      <c r="W45" s="30">
+        <v>12</v>
+      </c>
+      <c r="X45" s="30">
+        <v>12</v>
+      </c>
+      <c r="Y45" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:34">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C46" s="2">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="D46" s="2">
-        <v>210</v>
+        <v>750</v>
       </c>
       <c r="E46" s="8">
-        <v>9.8000000000000007</v>
+        <v>100</v>
       </c>
       <c r="F46" s="8">
         <v>0</v>
       </c>
-      <c r="G46" s="29">
+      <c r="G46" s="9">
         <v>1</v>
       </c>
-      <c r="H46" s="32">
-        <v>0.2</v>
+      <c r="H46" s="12">
+        <v>0.11</v>
       </c>
       <c r="I46" s="4">
         <v>2</v>
       </c>
-      <c r="J46" s="29">
-        <v>0</v>
-      </c>
-      <c r="K46" s="29">
-        <v>0</v>
-      </c>
-      <c r="L46" s="36">
+      <c r="J46" s="9">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
+      </c>
+      <c r="L46" s="16">
         <v>0</v>
       </c>
       <c r="M46" s="6">
-        <v>1.58</v>
+        <v>8</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O46" s="29">
+      <c r="O46" s="9">
         <v>0</v>
       </c>
       <c r="P46" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q46" s="34">
-        <v>0.1</v>
+        <v>2</v>
+      </c>
+      <c r="Q46" s="14">
+        <v>0.27</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="S46" s="2">
         <v>0</v>
@@ -5839,103 +5884,103 @@
       <c r="T46" s="2">
         <v>0</v>
       </c>
-      <c r="U46" s="38">
-        <v>0</v>
-      </c>
-      <c r="V46" s="19">
-        <v>13</v>
-      </c>
-      <c r="W46" s="19">
-        <v>13</v>
-      </c>
-      <c r="X46" s="19">
-        <v>104</v>
-      </c>
-      <c r="Y46" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="28">
+      <c r="U46" s="18">
+        <v>0</v>
+      </c>
+      <c r="V46" s="30">
+        <v>0</v>
+      </c>
+      <c r="W46" s="30">
+        <v>0</v>
+      </c>
+      <c r="X46" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="31">
+        <v>33</v>
+      </c>
+      <c r="Z46" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:34">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C47" s="2">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="D47" s="2">
-        <v>210</v>
+        <v>800</v>
       </c>
       <c r="E47" s="8">
-        <v>11.1</v>
+        <v>100</v>
       </c>
       <c r="F47" s="8">
         <v>0</v>
       </c>
-      <c r="G47" s="29">
+      <c r="G47" s="9">
         <v>1</v>
       </c>
-      <c r="H47" s="32">
-        <v>0.22</v>
+      <c r="H47" s="12">
+        <v>0.17</v>
       </c>
       <c r="I47" s="4">
-        <v>2</v>
-      </c>
-      <c r="J47" s="29">
-        <v>0</v>
-      </c>
-      <c r="K47" s="29">
-        <v>0</v>
-      </c>
-      <c r="L47" s="36">
+        <v>2.5</v>
+      </c>
+      <c r="J47" s="9">
+        <v>0</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0</v>
+      </c>
+      <c r="L47" s="16">
         <v>0</v>
       </c>
       <c r="M47" s="6">
-        <v>6.17</v>
+        <v>8</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O47" s="29">
+      <c r="O47" s="9">
         <v>0</v>
       </c>
       <c r="P47" s="8">
-        <v>2.4</v>
-      </c>
-      <c r="Q47" s="34">
-        <v>0.22</v>
+        <v>1.7</v>
+      </c>
+      <c r="Q47" s="14">
+        <v>0.28999999999999998</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="S47" s="2">
         <v>0</v>
@@ -5943,103 +5988,103 @@
       <c r="T47" s="2">
         <v>0</v>
       </c>
-      <c r="U47" s="38">
-        <v>0</v>
-      </c>
-      <c r="V47" s="19">
-        <v>20.9</v>
-      </c>
-      <c r="W47" s="19">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="X47" s="19">
-        <v>20.9</v>
-      </c>
-      <c r="Y47" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="28">
+      <c r="U47" s="18">
+        <v>0</v>
+      </c>
+      <c r="V47" s="30">
+        <v>0</v>
+      </c>
+      <c r="W47" s="30">
+        <v>0</v>
+      </c>
+      <c r="X47" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="31">
+        <v>35</v>
+      </c>
+      <c r="Z47" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:34">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="2">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="E48" s="8">
-        <v>15.4</v>
+        <v>100</v>
       </c>
       <c r="F48" s="8">
         <v>0</v>
       </c>
-      <c r="G48" s="29">
+      <c r="G48" s="9">
         <v>1</v>
       </c>
-      <c r="H48" s="32">
-        <v>0.24</v>
+      <c r="H48" s="12">
+        <v>0.05</v>
       </c>
       <c r="I48" s="4">
-        <v>3</v>
-      </c>
-      <c r="J48" s="29">
-        <v>0</v>
-      </c>
-      <c r="K48" s="29">
-        <v>0</v>
-      </c>
-      <c r="L48" s="36">
+        <v>2</v>
+      </c>
+      <c r="J48" s="9">
+        <v>0</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0</v>
+      </c>
+      <c r="L48" s="16">
         <v>0</v>
       </c>
       <c r="M48" s="6">
-        <v>12.5</v>
+        <v>6.67</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O48" s="29">
+      <c r="O48" s="9">
         <v>0</v>
       </c>
       <c r="P48" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="Q48" s="34">
-        <v>0.08</v>
+        <v>1.2</v>
+      </c>
+      <c r="Q48" s="14">
+        <v>0.16</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="S48" s="2">
         <v>0</v>
@@ -6047,100 +6092,100 @@
       <c r="T48" s="2">
         <v>0</v>
       </c>
-      <c r="U48" s="38">
-        <v>0</v>
-      </c>
-      <c r="V48" s="19">
-        <v>9</v>
-      </c>
-      <c r="W48" s="19">
-        <v>1.8</v>
-      </c>
-      <c r="X48" s="19">
-        <v>7.2</v>
-      </c>
-      <c r="Y48" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="28">
+      <c r="U48" s="18">
+        <v>0</v>
+      </c>
+      <c r="V48" s="30">
+        <v>0</v>
+      </c>
+      <c r="W48" s="30">
+        <v>0</v>
+      </c>
+      <c r="X48" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="34">
+        <v>35</v>
+      </c>
+      <c r="AC48" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:34">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C49" s="2">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D49" s="2">
         <v>210</v>
       </c>
       <c r="E49" s="8">
-        <v>23.5</v>
+        <v>15.4</v>
       </c>
       <c r="F49" s="8">
         <v>0</v>
       </c>
-      <c r="G49" s="29">
+      <c r="G49" s="9">
         <v>1</v>
       </c>
-      <c r="H49" s="32">
-        <v>0.18</v>
+      <c r="H49" s="12">
+        <v>0.05</v>
       </c>
       <c r="I49" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="J49" s="29">
-        <v>0</v>
-      </c>
-      <c r="K49" s="29">
-        <v>0</v>
-      </c>
-      <c r="L49" s="36">
+        <v>2</v>
+      </c>
+      <c r="J49" s="9">
+        <v>0</v>
+      </c>
+      <c r="K49" s="9">
+        <v>0</v>
+      </c>
+      <c r="L49" s="16">
         <v>0</v>
       </c>
       <c r="M49" s="6">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O49" s="29">
+      <c r="O49" s="9">
         <v>0</v>
       </c>
       <c r="P49" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q49" s="34">
-        <v>0.18</v>
+        <v>2</v>
+      </c>
+      <c r="Q49" s="14">
+        <v>0.12</v>
       </c>
       <c r="R49" s="2" t="s">
         <v>99</v>
@@ -6151,150 +6196,1190 @@
       <c r="T49" s="2">
         <v>0</v>
       </c>
-      <c r="U49" s="38">
-        <v>0</v>
-      </c>
-      <c r="V49" s="19">
-        <v>8.4</v>
-      </c>
-      <c r="W49" s="19">
-        <v>16.8</v>
-      </c>
-      <c r="X49" s="19">
-        <v>2.8</v>
-      </c>
-      <c r="Y49" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="28">
+      <c r="U49" s="18">
+        <v>0</v>
+      </c>
+      <c r="V49" s="30">
+        <v>3</v>
+      </c>
+      <c r="W49" s="30">
+        <v>3</v>
+      </c>
+      <c r="X49" s="30">
+        <v>14</v>
+      </c>
+      <c r="Y49" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:34">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C50" s="2">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2">
-        <v>288</v>
+        <v>210</v>
       </c>
       <c r="E50" s="8">
-        <v>16.7</v>
+        <v>26.7</v>
       </c>
       <c r="F50" s="8">
+        <v>0</v>
+      </c>
+      <c r="G50" s="9">
         <v>1</v>
       </c>
-      <c r="G50" s="29">
-        <v>1</v>
-      </c>
-      <c r="H50" s="32">
-        <v>0.14000000000000001</v>
+      <c r="H50" s="12">
+        <v>0.16</v>
       </c>
       <c r="I50" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J50" s="29">
-        <v>0</v>
-      </c>
-      <c r="K50" s="29">
-        <v>0</v>
-      </c>
-      <c r="L50" s="36">
+        <v>2.4</v>
+      </c>
+      <c r="J50" s="9">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9">
+        <v>0</v>
+      </c>
+      <c r="L50" s="16">
         <v>0</v>
       </c>
       <c r="M50" s="6">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O50" s="29">
+      <c r="O50" s="9">
         <v>0</v>
       </c>
       <c r="P50" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="Q50" s="14">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S50" s="2">
+        <v>0</v>
+      </c>
+      <c r="T50" s="2">
+        <v>0</v>
+      </c>
+      <c r="U50" s="18">
+        <v>0</v>
+      </c>
+      <c r="V50" s="30">
+        <v>0</v>
+      </c>
+      <c r="W50" s="30">
+        <v>4</v>
+      </c>
+      <c r="X50" s="30">
+        <v>36</v>
+      </c>
+      <c r="Y50" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34">
+      <c r="A51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="2">
+        <v>40</v>
+      </c>
+      <c r="D51" s="2">
+        <v>210</v>
+      </c>
+      <c r="E51" s="8">
+        <v>26.7</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0</v>
+      </c>
+      <c r="G51" s="9">
+        <v>1</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="I51" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="J51" s="9">
+        <v>0</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0</v>
+      </c>
+      <c r="L51" s="16">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <v>7</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O51" s="9">
+        <v>0</v>
+      </c>
+      <c r="P51" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="Q51" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S51" s="2">
+        <v>0</v>
+      </c>
+      <c r="T51" s="2">
+        <v>0</v>
+      </c>
+      <c r="U51" s="18">
+        <v>0</v>
+      </c>
+      <c r="V51" s="30">
+        <v>1.3</v>
+      </c>
+      <c r="W51" s="30">
+        <v>3.2</v>
+      </c>
+      <c r="X51" s="30">
+        <v>27.5</v>
+      </c>
+      <c r="Y51" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34">
+      <c r="A52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="2">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2">
+        <v>210</v>
+      </c>
+      <c r="E52" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0</v>
+      </c>
+      <c r="G52" s="9">
+        <v>7</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="I52" s="4">
+        <v>2</v>
+      </c>
+      <c r="J52" s="9">
+        <v>700</v>
+      </c>
+      <c r="K52" s="9">
+        <v>1400</v>
+      </c>
+      <c r="L52" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="M52" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O52" s="9">
+        <v>0</v>
+      </c>
+      <c r="P52" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q52" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S52" s="2">
+        <v>0</v>
+      </c>
+      <c r="T52" s="2">
+        <v>0</v>
+      </c>
+      <c r="U52" s="18">
+        <v>0</v>
+      </c>
+      <c r="V52" s="30">
+        <v>4</v>
+      </c>
+      <c r="W52" s="30">
+        <v>32</v>
+      </c>
+      <c r="X52" s="30">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34">
+      <c r="A53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="2">
+        <v>8</v>
+      </c>
+      <c r="D53" s="2">
+        <v>210</v>
+      </c>
+      <c r="E53" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0</v>
+      </c>
+      <c r="G53" s="9">
+        <v>7</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="I53" s="4">
+        <v>2</v>
+      </c>
+      <c r="J53" s="9">
+        <v>900</v>
+      </c>
+      <c r="K53" s="9">
+        <v>1800</v>
+      </c>
+      <c r="L53" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="M53" s="6">
+        <v>4.33</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O53" s="9">
+        <v>0</v>
+      </c>
+      <c r="P53" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="Q53" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S53" s="2">
+        <v>0</v>
+      </c>
+      <c r="T53" s="2">
+        <v>0</v>
+      </c>
+      <c r="U53" s="18">
+        <v>0</v>
+      </c>
+      <c r="V53" s="30">
+        <v>5</v>
+      </c>
+      <c r="W53" s="30">
+        <v>40</v>
+      </c>
+      <c r="X53" s="30">
+        <v>5</v>
+      </c>
+      <c r="Y53" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34">
+      <c r="A54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="2">
+        <v>36</v>
+      </c>
+      <c r="D54" s="2">
+        <v>210</v>
+      </c>
+      <c r="E54" s="8">
+        <v>15.4</v>
+      </c>
+      <c r="F54" s="8">
+        <v>0</v>
+      </c>
+      <c r="G54" s="9">
+        <v>1</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="I54" s="4">
+        <v>2</v>
+      </c>
+      <c r="J54" s="9">
+        <v>0</v>
+      </c>
+      <c r="K54" s="9">
+        <v>0</v>
+      </c>
+      <c r="L54" s="16">
+        <v>0</v>
+      </c>
+      <c r="M54" s="6">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O54" s="9">
+        <v>0</v>
+      </c>
+      <c r="P54" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="Q54" s="14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S54" s="2">
+        <v>2</v>
+      </c>
+      <c r="T54" s="2">
+        <v>0</v>
+      </c>
+      <c r="U54" s="18">
+        <v>0</v>
+      </c>
+      <c r="V54" s="30">
+        <v>21</v>
+      </c>
+      <c r="W54" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="X54" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="Y54" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34">
+      <c r="A55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="2">
+        <v>30</v>
+      </c>
+      <c r="D55" s="2">
+        <v>210</v>
+      </c>
+      <c r="E55" s="8">
+        <v>11.1</v>
+      </c>
+      <c r="F55" s="8">
+        <v>0</v>
+      </c>
+      <c r="G55" s="9">
+        <v>1</v>
+      </c>
+      <c r="H55" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I55" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="J55" s="9">
+        <v>0</v>
+      </c>
+      <c r="K55" s="9">
+        <v>0</v>
+      </c>
+      <c r="L55" s="16">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O55" s="9">
+        <v>0</v>
+      </c>
+      <c r="P55" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="Q55" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S55" s="2">
+        <v>0</v>
+      </c>
+      <c r="T55" s="2">
+        <v>0</v>
+      </c>
+      <c r="U55" s="18">
+        <v>0</v>
+      </c>
+      <c r="V55" s="30">
+        <v>18</v>
+      </c>
+      <c r="W55" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="X55" s="30">
+        <v>7.5</v>
+      </c>
+      <c r="Y55" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34">
+      <c r="A56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="2">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2">
+        <v>210</v>
+      </c>
+      <c r="E56" s="8">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="I56" s="4">
+        <v>2</v>
+      </c>
+      <c r="J56" s="9">
+        <v>0</v>
+      </c>
+      <c r="K56" s="9">
+        <v>0</v>
+      </c>
+      <c r="L56" s="16">
+        <v>0</v>
+      </c>
+      <c r="M56" s="6">
+        <v>1.58</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O56" s="9">
+        <v>0</v>
+      </c>
+      <c r="P56" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q56" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S56" s="2">
+        <v>0</v>
+      </c>
+      <c r="T56" s="2">
+        <v>0</v>
+      </c>
+      <c r="U56" s="18">
+        <v>0</v>
+      </c>
+      <c r="V56" s="30">
+        <v>13</v>
+      </c>
+      <c r="W56" s="30">
+        <v>13</v>
+      </c>
+      <c r="X56" s="30">
+        <v>104</v>
+      </c>
+      <c r="Y56" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34">
+      <c r="A57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="2">
+        <v>16</v>
+      </c>
+      <c r="D57" s="2">
+        <v>210</v>
+      </c>
+      <c r="E57" s="8">
+        <v>11.1</v>
+      </c>
+      <c r="F57" s="8">
+        <v>0</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="I57" s="4">
+        <v>2</v>
+      </c>
+      <c r="J57" s="9">
+        <v>0</v>
+      </c>
+      <c r="K57" s="9">
+        <v>0</v>
+      </c>
+      <c r="L57" s="16">
+        <v>0</v>
+      </c>
+      <c r="M57" s="6">
+        <v>6.17</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O57" s="9">
+        <v>0</v>
+      </c>
+      <c r="P57" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="Q57" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S57" s="2">
+        <v>0</v>
+      </c>
+      <c r="T57" s="2">
+        <v>0</v>
+      </c>
+      <c r="U57" s="18">
+        <v>0</v>
+      </c>
+      <c r="V57" s="30">
+        <v>20.9</v>
+      </c>
+      <c r="W57" s="30">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="X57" s="30">
+        <v>20.9</v>
+      </c>
+      <c r="Y57" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34">
+      <c r="A58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="2">
+        <v>70</v>
+      </c>
+      <c r="D58" s="2">
+        <v>420</v>
+      </c>
+      <c r="E58" s="8">
+        <v>15.4</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0</v>
+      </c>
+      <c r="G58" s="9">
+        <v>1</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="I58" s="4">
+        <v>3</v>
+      </c>
+      <c r="J58" s="9">
+        <v>0</v>
+      </c>
+      <c r="K58" s="9">
+        <v>0</v>
+      </c>
+      <c r="L58" s="16">
+        <v>0</v>
+      </c>
+      <c r="M58" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O58" s="9">
+        <v>0</v>
+      </c>
+      <c r="P58" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="Q58" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S58" s="2">
+        <v>0</v>
+      </c>
+      <c r="T58" s="2">
+        <v>0</v>
+      </c>
+      <c r="U58" s="18">
+        <v>0</v>
+      </c>
+      <c r="V58" s="30">
+        <v>9</v>
+      </c>
+      <c r="W58" s="30">
+        <v>1.8</v>
+      </c>
+      <c r="X58" s="30">
+        <v>7.2</v>
+      </c>
+      <c r="Y58" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34">
+      <c r="A59" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="2">
+        <v>28</v>
+      </c>
+      <c r="D59" s="2">
+        <v>210</v>
+      </c>
+      <c r="E59" s="8">
+        <v>23.5</v>
+      </c>
+      <c r="F59" s="8">
+        <v>0</v>
+      </c>
+      <c r="G59" s="9">
+        <v>1</v>
+      </c>
+      <c r="H59" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="I59" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="J59" s="9">
+        <v>0</v>
+      </c>
+      <c r="K59" s="9">
+        <v>0</v>
+      </c>
+      <c r="L59" s="16">
+        <v>0</v>
+      </c>
+      <c r="M59" s="6">
+        <v>10</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O59" s="9">
+        <v>0</v>
+      </c>
+      <c r="P59" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q59" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="S59" s="2">
+        <v>0</v>
+      </c>
+      <c r="T59" s="2">
+        <v>0</v>
+      </c>
+      <c r="U59" s="18">
+        <v>0</v>
+      </c>
+      <c r="V59" s="30">
+        <v>8.4</v>
+      </c>
+      <c r="W59" s="30">
+        <v>16.8</v>
+      </c>
+      <c r="X59" s="30">
+        <v>2.8</v>
+      </c>
+      <c r="Y59" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34">
+      <c r="A60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="2">
+        <v>48</v>
+      </c>
+      <c r="D60" s="2">
+        <v>288</v>
+      </c>
+      <c r="E60" s="8">
+        <v>16.7</v>
+      </c>
+      <c r="F60" s="8">
+        <v>1</v>
+      </c>
+      <c r="G60" s="9">
+        <v>1</v>
+      </c>
+      <c r="H60" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I60" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J60" s="9">
+        <v>0</v>
+      </c>
+      <c r="K60" s="9">
+        <v>0</v>
+      </c>
+      <c r="L60" s="16">
+        <v>0</v>
+      </c>
+      <c r="M60" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O60" s="9">
+        <v>0</v>
+      </c>
+      <c r="P60" s="8">
         <v>1.5</v>
       </c>
-      <c r="Q50" s="34">
+      <c r="Q60" s="14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="R50" s="2" t="s">
+      <c r="R60" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="S50" s="2">
-        <v>0</v>
-      </c>
-      <c r="T50" s="2">
+      <c r="S60" s="2">
+        <v>0</v>
+      </c>
+      <c r="T60" s="2">
         <v>4</v>
       </c>
-      <c r="U50" s="38">
+      <c r="U60" s="18">
         <v>4</v>
       </c>
-      <c r="V50" s="19">
-        <v>0</v>
-      </c>
-      <c r="W50" s="19">
-        <v>0</v>
-      </c>
-      <c r="X50" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="24">
+      <c r="V60" s="30">
+        <v>0</v>
+      </c>
+      <c r="W60" s="30">
+        <v>0</v>
+      </c>
+      <c r="X60" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="36">
         <v>132</v>
       </c>
-      <c r="AE50" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="28">
+      <c r="AE60" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="40">
         <v>0</v>
       </c>
     </row>
